--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -979,31 +982,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,13 +1012,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1039,21 +1019,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1069,10 +1065,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1085,7 +1081,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,7 +1111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,25 +1126,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1156,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,25 +1186,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,7 +1210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,25 +1234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,13 +1258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,25 +1270,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,25 +1312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,9 +1373,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1401,6 +1421,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1412,32 +1441,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,7 +1471,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1486,130 +1489,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1619,18 +1622,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1691,6 +1694,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1969,18 +1987,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" style="4" customWidth="1"/>
     <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
     <col min="7" max="7" width="33.2857142857143" style="4" customWidth="1"/>
@@ -1989,51 +2007,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2053,29 +2071,29 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2097,31 +2115,31 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2145,29 +2163,29 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2185,29 +2203,29 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2223,29 +2241,29 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2265,29 +2283,29 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2307,13 +2325,13 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -2322,16 +2340,16 @@
       <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -2347,31 +2365,31 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -2395,29 +2413,29 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -2439,29 +2457,29 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2485,29 +2503,29 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -2527,27 +2545,27 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -2571,31 +2589,31 @@
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -2619,31 +2637,31 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -2667,29 +2685,29 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -2711,27 +2729,27 @@
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="6">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8">
         <v>5</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="5">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -2755,29 +2773,29 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="6">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -2799,31 +2817,31 @@
       <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="6">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" s="4" customFormat="1" spans="1:13">
-      <c r="A39" s="5">
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -2845,43 +2863,33 @@
         <v>112</v>
       </c>
       <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:13">
-      <c r="A40" s="6">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>10001</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-    </row>
-    <row r="41" s="4" customFormat="1" spans="1:13">
-      <c r="A41" s="5">
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -2903,34 +2911,29 @@
         <v>117</v>
       </c>
       <c r="H41" s="10"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="6">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="5">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -2950,27 +2953,27 @@
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="6">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="5">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -2991,28 +2994,28 @@
       </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" s="5" customFormat="1" spans="1:8">
-      <c r="A46" s="6">
+    <row r="46" spans="1:8">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>4</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" s="6" customFormat="1" spans="1:8">
-      <c r="A47" s="5">
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -3029,32 +3032,32 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" s="5" customFormat="1" spans="1:8">
-      <c r="A48" s="6">
+    <row r="48" spans="1:8">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" s="6" customFormat="1" spans="1:8">
-      <c r="A49" s="5">
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -3077,32 +3080,32 @@
       </c>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" s="5" customFormat="1" spans="1:8">
-      <c r="A50" s="6">
+    <row r="50" spans="1:8">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" s="5" customFormat="1" spans="1:8">
-      <c r="A51" s="5">
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3125,14 +3128,14 @@
       </c>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" s="6" customFormat="1" spans="1:8">
-      <c r="A52" s="6">
+    <row r="52" spans="1:8">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -3141,16 +3144,16 @@
       <c r="E52" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="1:8">
-      <c r="A53" s="5">
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -3173,32 +3176,32 @@
       </c>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" s="6" customFormat="1" spans="1:8">
-      <c r="A54" s="6">
+    <row r="54" spans="1:8">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>10001</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" s="5" customFormat="1" spans="1:8">
-      <c r="A55" s="5">
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -3221,32 +3224,32 @@
       </c>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" s="5" customFormat="1" spans="1:8">
-      <c r="A56" s="6">
+    <row r="56" spans="1:8">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" s="6" customFormat="1" spans="1:8">
-      <c r="A57" s="5">
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -3267,28 +3270,28 @@
       </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" s="5" customFormat="1" spans="1:8">
-      <c r="A58" s="6">
+    <row r="58" spans="1:8">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>4</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" s="6" customFormat="1" spans="1:8">
-      <c r="A59" s="5">
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -3311,24 +3314,24 @@
       </c>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" s="5" customFormat="1" spans="1:8">
-      <c r="A60" s="6">
+    <row r="60" spans="1:8">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8">
         <v>2</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" s="5" customFormat="1" spans="1:8">
-      <c r="A61" s="5">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -3345,32 +3348,32 @@
       </c>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" s="6" customFormat="1" spans="1:8">
-      <c r="A62" s="6">
+    <row r="62" spans="1:8">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" s="5" customFormat="1" spans="1:8">
-      <c r="A63" s="5">
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
@@ -3391,32 +3394,32 @@
       </c>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" s="6" customFormat="1" spans="1:8">
-      <c r="A64" s="6">
+    <row r="64" spans="1:8">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" s="5" customFormat="1" spans="1:8">
-      <c r="A65" s="5">
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -3437,32 +3440,32 @@
       </c>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" s="5" customFormat="1" spans="1:8">
-      <c r="A66" s="6">
+    <row r="66" spans="1:8">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>1235647899</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" s="6" customFormat="1" spans="1:8">
-      <c r="A67" s="5">
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -3479,30 +3482,30 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" s="5" customFormat="1" spans="1:8">
-      <c r="A68" s="6">
+    <row r="68" spans="1:8">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9" t="s">
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" s="6" customFormat="1" spans="1:8">
-      <c r="A69" s="5">
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -3525,48 +3528,48 @@
       </c>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" s="5" customFormat="1" spans="1:8">
-      <c r="A70" s="6">
+    <row r="70" spans="1:8">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9" t="s">
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" s="5" customFormat="1" spans="1:8">
-      <c r="A71" s="5">
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" s="6" customFormat="1" spans="1:8">
-      <c r="A72" s="6">
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -3581,26 +3584,26 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" s="5" customFormat="1" spans="1:8">
-      <c r="A73" s="5">
+    <row r="73" spans="1:8">
+      <c r="A73" s="9">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" s="6" customFormat="1" spans="1:8">
-      <c r="A74" s="6">
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -3615,26 +3618,26 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" s="5" customFormat="1" spans="1:8">
-      <c r="A75" s="5">
+    <row r="75" spans="1:8">
+      <c r="A75" s="9">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" s="5" customFormat="1" spans="1:8">
-      <c r="A76" s="6">
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -3649,26 +3652,26 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" s="6" customFormat="1" spans="1:8">
-      <c r="A77" s="5">
+    <row r="77" spans="1:8">
+      <c r="A77" s="9">
         <v>76</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" s="5" customFormat="1" spans="1:8">
-      <c r="A78" s="6">
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -3683,26 +3686,26 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" s="6" customFormat="1" spans="1:8">
-      <c r="A79" s="5">
+    <row r="79" spans="1:8">
+      <c r="A79" s="9">
         <v>78</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="80" s="6" customFormat="1" spans="1:8">
-      <c r="A80" s="6">
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
@@ -3723,24 +3726,24 @@
       </c>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" s="6" customFormat="1" spans="1:8">
-      <c r="A81" s="5">
+    <row r="81" spans="1:8">
+      <c r="A81" s="9">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8">
         <v>1</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" s="6" customFormat="1" spans="1:8">
-      <c r="A82" s="6">
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3757,67 +3760,48 @@
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" s="6" customFormat="1" spans="1:8">
-      <c r="A83" s="5">
+    <row r="83" spans="1:8">
+      <c r="A83" s="9">
         <v>82</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8">
         <v>4</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" s="5" customFormat="1" spans="1:8">
-      <c r="A84" s="6">
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9" t="s">
+      <c r="E84" s="8"/>
+      <c r="F84" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="85" s="5" customFormat="1" spans="1:8">
-      <c r="A85" s="5">
-        <v>84</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10">
-        <v>4</v>
-      </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="H84" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77 B1:B76 B78:B79 B80:B83 B84:B85 B86:B1048576">
-      <formula1>DataList!$C$2:$C$120</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77 C1:C76 C78:C79 C80:C83 C84:C85 C86:C1048576">
-      <formula1>DataList!$A$2:$A$11</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77 C77 B84 C84 B1:B76 B78:B79 B80:B83 C1:C76 C78:C79 C80:C83">
+      <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -76,7 +73,7 @@
     <t>ByID</t>
   </si>
   <si>
-    <t>SSN_TEXT_FIELD</t>
+    <t>SSN_FIELD</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -927,10 +924,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -973,22 +970,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -996,45 +977,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1056,6 +1008,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1064,11 +1046,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1088,15 +1086,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,13 +1108,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1138,7 +1135,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1189,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,168 +1321,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1374,10 +1377,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1393,30 +1396,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1447,6 +1426,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1468,18 +1473,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1489,40 +1503,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1531,92 +1545,92 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1628,8 +1642,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1694,21 +1709,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1990,7 +1990,7 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2124,7 +2124,7 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2172,7 +2172,7 @@
       <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="8"/>
@@ -2212,7 +2212,7 @@
       <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="8"/>
@@ -2250,7 +2250,7 @@
       <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="8"/>
@@ -2292,7 +2292,7 @@
       <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="8"/>
@@ -2334,10 +2334,10 @@
       <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <v>2</v>
       </c>
       <c r="F17" s="10"/>
@@ -2374,7 +2374,7 @@
       <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="8">
@@ -2422,7 +2422,7 @@
       <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="8"/>
@@ -2466,7 +2466,7 @@
       <c r="C22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="8"/>
@@ -2554,7 +2554,7 @@
       <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -2770,7 +2770,7 @@
       <c r="G35" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7">
@@ -2792,7 +2792,7 @@
       <c r="G36" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="9">
@@ -2814,7 +2814,7 @@
       <c r="G37" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7">
@@ -2874,7 +2874,7 @@
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="13" t="s">
         <v>113</v>
       </c>
       <c r="E40" s="8">
@@ -2922,7 +2922,7 @@
       <c r="C42" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="13" t="s">
         <v>118</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -2962,7 +2962,7 @@
       <c r="C44" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="13" t="s">
         <v>121</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -3002,7 +3002,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="11"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="8">
         <v>4</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="C48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="13" t="s">
         <v>124</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -3090,7 +3090,7 @@
       <c r="C50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="13" t="s">
         <v>130</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -3138,10 +3138,10 @@
       <c r="C52" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="14" t="s">
         <v>106</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -3165,7 +3165,7 @@
       <c r="D53" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="15" t="s">
         <v>110</v>
       </c>
       <c r="F53" s="10" t="s">
@@ -3186,7 +3186,7 @@
       <c r="C54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="13" t="s">
         <v>142</v>
       </c>
       <c r="E54" s="8">
@@ -3234,7 +3234,7 @@
       <c r="C56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -3278,7 +3278,7 @@
         <v>11</v>
       </c>
       <c r="C58" s="8"/>
-      <c r="D58" s="11"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="8">
         <v>4</v>
       </c>
@@ -3358,7 +3358,7 @@
       <c r="C62" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="13" t="s">
         <v>159</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -3560,7 +3560,7 @@
       <c r="C71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="13" t="s">
         <v>185</v>
       </c>
       <c r="E71" s="8"/>
@@ -3594,7 +3594,7 @@
       <c r="C73" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="13" t="s">
         <v>186</v>
       </c>
       <c r="E73" s="8"/>
@@ -3662,7 +3662,7 @@
       <c r="C77" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="13" t="s">
         <v>188</v>
       </c>
       <c r="E77" s="8"/>
@@ -3696,7 +3696,7 @@
       <c r="C79" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="13" t="s">
         <v>190</v>
       </c>
       <c r="E79" s="8"/>
@@ -3714,7 +3714,7 @@
       <c r="C80" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="18" t="s">
         <v>191</v>
       </c>
       <c r="E80" s="10"/>
@@ -3752,7 +3752,7 @@
       <c r="C82" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="18" t="s">
         <v>194</v>
       </c>
       <c r="E82" s="10"/>
@@ -3801,7 +3801,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77 C77 B84 C84 B1:B76 B78:B79 B80:B83 C1:C76 C78:C79 C80:C83">
-      <formula1>[1]DataList!#REF!</formula1>
+      <formula1/>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307">
   <si>
     <t>Step No</t>
   </si>
@@ -67,12 +67,42 @@
     <t>Page loaded successfully</t>
   </si>
   <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>ByID</t>
+  </si>
+  <si>
+    <t>INCOMPLETE_APPLICATION</t>
+  </si>
+  <si>
+    <t>Click on view incomplete link</t>
+  </si>
+  <si>
+    <t>View incomplete link clicked</t>
+  </si>
+  <si>
+    <t>TrashIncomplete</t>
+  </si>
+  <si>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>INCOMPLETE_TRASH</t>
+  </si>
+  <si>
+    <t>Trash all incomplete application</t>
+  </si>
+  <si>
+    <t>All incomplete app trashed</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
     <t>SSN9Digit</t>
   </si>
   <si>
-    <t>ByID</t>
-  </si>
-  <si>
     <t>SSN_FIELD</t>
   </si>
   <si>
@@ -82,9 +112,6 @@
     <t>SSN entered</t>
   </si>
   <si>
-    <t>Click</t>
-  </si>
-  <si>
     <t>NAME_DOB_LINK</t>
   </si>
   <si>
@@ -121,9 +148,6 @@
     <t>Last name entered</t>
   </si>
   <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
     <t>DOB_FIELD</t>
   </si>
   <si>
@@ -586,10 +610,13 @@
     <t>OK_BUTTON</t>
   </si>
   <si>
-    <t>INCOMPLETE_APPLICATION</t>
-  </si>
-  <si>
     <t>COMPLETE_APPLICATION</t>
+  </si>
+  <si>
+    <t>Click on Complete application link</t>
+  </si>
+  <si>
+    <t>Complete application link clicked</t>
   </si>
   <si>
     <t>VerifyElementIsPresent</t>
@@ -924,12 +951,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,24 +986,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -986,10 +995,87 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1008,78 +1094,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,16 +1108,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,8 +1122,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1135,13 +1151,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,31 +1187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,25 +1217,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1253,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,25 +1289,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,43 +1325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,13 +1384,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,11 +1432,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,45 +1488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1485,15 +1499,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1503,134 +1517,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1642,13 +1656,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1721,7 +1729,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C100" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Actions"/>
   </tableColumns>
@@ -1987,10 +1995,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2041,7 +2049,7 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
@@ -2059,7 +2067,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>5</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -2080,10 +2088,10 @@
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
@@ -2096,21 +2104,21 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -2119,23 +2127,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8">
@@ -2143,184 +2145,184 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="8"/>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="G11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <v>5</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -2328,40 +2330,38 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="G17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="15">
-        <v>2</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
@@ -2369,46 +2369,36 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="8">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1000</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -2417,42 +2407,40 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7">
+        <v>4</v>
+      </c>
       <c r="F20" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -2461,44 +2449,42 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7">
+        <v>5</v>
+      </c>
       <c r="F22" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="10">
-        <v>10001</v>
+      <c r="D23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H23" s="10"/>
     </row>
@@ -2507,40 +2493,38 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>67</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H25" s="10"/>
     </row>
@@ -2549,42 +2533,44 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H27" s="10"/>
     </row>
@@ -2593,46 +2579,42 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="8" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E29" s="9"/>
       <c r="F29" s="10" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -2641,46 +2623,44 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="E30" s="7">
+        <v>10001</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>88</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H31" s="10"/>
     </row>
@@ -2689,43 +2669,39 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7">
+        <v>5</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
       <c r="B33" s="10" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
@@ -2733,134 +2709,140 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="16"/>
+        <v>86</v>
+      </c>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="F36" s="8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="F37" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H37" s="16"/>
+        <v>94</v>
+      </c>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>110</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="H39" s="10"/>
     </row>
@@ -2869,46 +2851,40 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="8">
-        <v>10001</v>
-      </c>
+      <c r="D40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="7"/>
       <c r="F40" s="8" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>115</v>
+        <v>11</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9">
+        <v>5</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="H41" s="10"/>
     </row>
@@ -2917,39 +2893,45 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="D43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8">
@@ -2957,40 +2939,44 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="F45" s="10" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H45" s="10"/>
     </row>
@@ -2999,37 +2985,47 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="8">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="E47" s="9">
+        <v>10001</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8">
@@ -3037,47 +3033,43 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="G48" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="E49" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8">
@@ -3085,47 +3077,39 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="7">
+        <v>9876543210</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8">
@@ -3133,46 +3117,40 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>106</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="7"/>
       <c r="F52" s="8" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="9">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9">
+        <v>4</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="H53" s="10"/>
     </row>
@@ -3181,46 +3159,40 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>144</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="9">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" s="10">
-        <v>9789123456</v>
+      <c r="D55" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="H55" s="10"/>
     </row>
@@ -3229,44 +3201,46 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>149</v>
+      <c r="D56" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="9">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="F57" s="10" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="H57" s="10"/>
     </row>
@@ -3275,42 +3249,46 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="8">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>153</v>
+        <v>20</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="H59" s="10"/>
     </row>
@@ -3319,32 +3297,46 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8">
-        <v>2</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="9">
+        <v>10001</v>
+      </c>
       <c r="F61" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H61" s="10"/>
     </row>
@@ -3353,44 +3345,46 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="7">
+        <v>9789123456</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E63" s="10"/>
+        <v>156</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="F63" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H63" s="10"/>
     </row>
@@ -3399,44 +3393,40 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>167</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E64" s="7"/>
       <c r="F64" s="8" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="9">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E65" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="9">
+        <v>4</v>
+      </c>
       <c r="F65" s="10" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="H65" s="10"/>
     </row>
@@ -3445,39 +3435,37 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E66" s="8">
-        <v>1235647899</v>
+        <v>160</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="9">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E67" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9">
+        <v>2</v>
+      </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -3487,44 +3475,40 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E68" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="7"/>
       <c r="F68" s="8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="9">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="10">
-        <v>97890456789</v>
+        <v>167</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H69" s="10"/>
     </row>
@@ -3533,263 +3517,299 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E70" s="8"/>
+        <v>171</v>
+      </c>
+      <c r="E70" s="7"/>
       <c r="F70" s="8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="9">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
+      <c r="B71" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="10">
-        <v>4</v>
-      </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
+      <c r="B72" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="9">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
+      <c r="B73" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" s="9">
+        <v>1235647899</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="10">
-        <v>5</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="B74" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="9">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
+      <c r="B75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10">
-        <v>3</v>
-      </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
+      <c r="B76" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="7">
+        <v>97890456789</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="9">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
+      <c r="B77" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10">
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="9">
         <v>4</v>
       </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="9">
-        <v>78</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H80" s="10"/>
+      <c r="B80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="9">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8">
-        <v>1</v>
-      </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="9">
+        <v>5</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+      <c r="B82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="9">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8">
-        <v>4</v>
-      </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="9">
+        <v>3</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E84" s="8"/>
+      <c r="E84" s="7"/>
       <c r="F84" s="8" t="s">
         <v>196</v>
       </c>
@@ -3798,10 +3818,141 @@
       </c>
       <c r="H84" s="8"/>
     </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9">
+        <v>4</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="7">
+        <v>1</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="7">
+        <v>4</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" s="10"/>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77 C77 B84 C84 B1:B76 B78:B79 B80:B83 C1:C76 C78:C79 C80:C83">
-      <formula1/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B14 B15 B16 B17 B1:B12 B18:B1048576">
+      <formula1>DataList!$C$2:$C$118</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C14 C15 C16 C17 C1:C12 C18:C1048576">
+      <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3813,10 +3964,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3831,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3839,20 +3990,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3860,506 +4011,506 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -4369,18 +4520,26 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$A$2:$A$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C101">
+      <formula1>$C$2:$C$101</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
   <si>
     <t>Step No</t>
   </si>
@@ -160,16 +160,13 @@
     <t>DOB_DATEPICKER</t>
   </si>
   <si>
-    <t>SEARCH_BUTTON_LINK</t>
+    <t>SEARCH_PATIENT_NEW</t>
   </si>
   <si>
     <t>Click on search button</t>
   </si>
   <si>
     <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>SEARCH_PATIENT_NEW</t>
   </si>
   <si>
     <t>Click Search</t>
@@ -951,12 +948,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,8 +983,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -995,7 +997,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1010,17 +1012,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,67 +1112,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,28 +1127,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,13 +1153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,13 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,13 +1195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,7 +1213,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,7 +1243,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,7 +1255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,7 +1267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,7 +1309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,31 +1333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,26 +1410,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,6 +1436,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1463,27 +1476,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1499,15 +1501,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1517,134 +1519,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1658,6 +1660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1995,10 +1998,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2314,7 +2317,7 @@
       <c r="C15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="9"/>
@@ -2328,23 +2331,23 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>14</v>
@@ -2357,7 +2360,7 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>47</v>
@@ -2366,7 +2369,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>11</v>
@@ -2374,15 +2377,19 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7">
-        <v>5</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>14</v>
@@ -2391,20 +2398,20 @@
         <v>20</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
@@ -2412,10 +2419,10 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>13</v>
@@ -2424,29 +2431,31 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="F21" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
@@ -2454,107 +2463,107 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="7">
-        <v>5</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E24" s="7">
-        <v>2</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+        <v>1000</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="9">
-        <v>2</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1000</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E26" s="7"/>
       <c r="F26" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>14</v>
@@ -2563,42 +2572,44 @@
         <v>20</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="E28" s="7">
+        <v>10001</v>
+      </c>
       <c r="F28" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>14</v>
@@ -2607,466 +2618,460 @@
         <v>20</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="7">
-        <v>10001</v>
+        <v>5</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>75</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>92</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E37" s="9"/>
       <c r="F37" s="10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E38" s="7"/>
       <c r="F38" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9">
+        <v>5</v>
+      </c>
       <c r="F39" s="10" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="F40" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="9">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="10" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E42" s="7"/>
       <c r="F42" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="F43" s="10" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="F44" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="E45" s="9">
+        <v>10001</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="9">
-        <v>10001</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>72</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>125</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E48" s="7">
+        <v>9876543210</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -3074,345 +3079,349 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="7">
-        <v>9876543210</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="9">
+        <v>4</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E52" s="7"/>
-      <c r="F52" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="9">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
+        <v>59</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>114</v>
+        <v>149</v>
+      </c>
+      <c r="E59" s="9">
+        <v>10001</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>118</v>
+        <v>152</v>
+      </c>
+      <c r="E60" s="7">
+        <v>9789123456</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" s="9">
-        <v>10001</v>
+        <v>155</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E62" s="7">
-        <v>9789123456</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E62" s="7"/>
       <c r="F62" s="8" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>157</v>
+        <v>11</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="9">
+        <v>4</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E64" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="F64" s="8" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="7">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>11</v>
@@ -3420,211 +3429,213 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="9">
-        <v>4</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>161</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="7"/>
       <c r="F66" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="9">
-        <v>2</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="E68" s="7"/>
       <c r="F68" s="8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="E71" s="9">
+        <v>1235647899</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E72" s="7"/>
-      <c r="F72" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E73" s="9">
-        <v>1235647899</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E73" s="9"/>
       <c r="F73" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="E74" s="7">
+        <v>97890456789</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>14</v>
@@ -3633,72 +3644,60 @@
         <v>20</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E76" s="7">
-        <v>97890456789</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>189</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>192</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="9">
+        <v>4</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="7">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>193</v>
@@ -3710,7 +3709,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>11</v>
@@ -3718,7 +3717,7 @@
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -3726,25 +3725,29 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="E80" s="7"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="F80" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>11</v>
@@ -3752,7 +3755,7 @@
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
@@ -3760,29 +3763,29 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="8" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>11</v>
@@ -3790,7 +3793,7 @@
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -3798,85 +3801,81 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E84" s="7"/>
-      <c r="F84" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>197</v>
-      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="7">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="9">
-        <v>4</v>
-      </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E86" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="7">
+        <v>1</v>
+      </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>202</v>
-      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>11</v>
@@ -3884,7 +3883,7 @@
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -3892,7 +3891,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>14</v>
@@ -3904,54 +3903,20 @@
         <v>203</v>
       </c>
       <c r="E89" s="9"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="F89" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="7">
-        <v>89</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="7">
-        <v>4</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="7">
-        <v>90</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="H91" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B14 B15 B16 B17 B1:B12 B18:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B14 B15 B1:B12 B16:B1048576">
       <formula1>DataList!$C$2:$C$118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C14 C15 C16 C17 C1:C12 C18:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C14 C15 C1:C12 C16:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -3982,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3990,20 +3955,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
         <v>209</v>
-      </c>
-      <c r="C3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -4014,20 +3979,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
         <v>213</v>
-      </c>
-      <c r="C6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -4035,482 +4000,482 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
         <v>216</v>
-      </c>
-      <c r="C8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" t="s">
         <v>221</v>
-      </c>
-      <c r="C10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
         <v>223</v>
-      </c>
-      <c r="C11" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -4525,7 +4490,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="3:3">

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -949,9 +949,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -989,7 +989,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1004,17 +1012,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,75 +1035,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,7 +1050,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,8 +1063,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,7 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,7 +1183,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,7 +1255,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,139 +1315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,6 +1401,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1410,17 +1425,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,41 +1444,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1490,26 +1464,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1519,130 +1519,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2000,8 +2000,8 @@
   <sheetPr/>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2104,7 +2104,7 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2126,7 +2126,7 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2144,7 +2144,7 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2308,7 +2308,7 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2331,7 +2331,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>14</v>
@@ -2368,8 +2368,8 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7">
-        <v>19</v>
+      <c r="A18" s="9">
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>11</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>14</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
@@ -2430,8 +2430,8 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7">
-        <v>22</v>
+      <c r="A21" s="9">
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>52</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>57</v>
@@ -2494,8 +2494,8 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7">
-        <v>25</v>
+      <c r="A24" s="9">
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>57</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>14</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>14</v>
@@ -2562,8 +2562,8 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
-        <v>28</v>
+      <c r="A27" s="9">
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>14</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>57</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>14</v>
@@ -2630,8 +2630,8 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7">
-        <v>31</v>
+      <c r="A30" s="9">
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>11</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>75</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>52</v>
@@ -2694,8 +2694,8 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7">
-        <v>34</v>
+      <c r="A33" s="9">
+        <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>52</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>52</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>52</v>
@@ -2766,8 +2766,8 @@
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="7">
-        <v>37</v>
+      <c r="A36" s="9">
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>52</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>14</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>14</v>
@@ -2834,8 +2834,8 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7">
-        <v>40</v>
+      <c r="A39" s="9">
+        <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>11</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>52</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="7">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>75</v>
@@ -2900,8 +2900,8 @@
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7">
-        <v>43</v>
+      <c r="A42" s="9">
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>75</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>52</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>57</v>
@@ -2970,8 +2970,8 @@
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7">
-        <v>46</v>
+      <c r="A45" s="9">
+        <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>57</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>57</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>52</v>
@@ -3038,8 +3038,8 @@
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="7">
-        <v>49</v>
+      <c r="A48" s="9">
+        <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>57</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>52</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>14</v>
@@ -3100,8 +3100,8 @@
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7">
-        <v>52</v>
+      <c r="A51" s="9">
+        <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>11</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>14</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>75</v>
@@ -3162,8 +3162,8 @@
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="7">
-        <v>55</v>
+      <c r="A54" s="9">
+        <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>75</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>52</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>75</v>
@@ -3234,8 +3234,8 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7">
-        <v>58</v>
+      <c r="A57" s="9">
+        <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>52</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>57</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>57</v>
@@ -3306,8 +3306,8 @@
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="7">
-        <v>61</v>
+      <c r="A60" s="9">
+        <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>57</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>75</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>14</v>
@@ -3376,8 +3376,8 @@
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="7">
-        <v>64</v>
+      <c r="A63" s="9">
+        <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>11</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>57</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>11</v>
@@ -3436,8 +3436,8 @@
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="7">
-        <v>67</v>
+      <c r="A66" s="9">
+        <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>163</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>52</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>75</v>
@@ -3500,8 +3500,8 @@
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7">
-        <v>70</v>
+      <c r="A69" s="9">
+        <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>52</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>75</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="7">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>57</v>
@@ -3570,8 +3570,8 @@
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="7">
-        <v>73</v>
+      <c r="A72" s="9">
+        <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>14</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>14</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>57</v>
@@ -3634,8 +3634,8 @@
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7">
-        <v>76</v>
+      <c r="A75" s="9">
+        <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>14</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>14</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="7">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>11</v>
@@ -3690,8 +3690,8 @@
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="7">
-        <v>79</v>
+      <c r="A78" s="9">
+        <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>14</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>11</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>14</v>
@@ -3746,8 +3746,8 @@
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="7">
-        <v>82</v>
+      <c r="A81" s="9">
+        <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>11</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>14</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="7">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>11</v>
@@ -3800,8 +3800,8 @@
       <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="7">
-        <v>85</v>
+      <c r="A84" s="9">
+        <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>197</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="7">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>14</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>11</v>
@@ -3856,8 +3856,8 @@
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="7">
-        <v>88</v>
+      <c r="A87" s="9">
+        <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>14</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>11</v>
@@ -3891,7 +3891,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>14</v>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -948,10 +948,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -989,10 +989,42 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1004,23 +1036,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,14 +1068,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,17 +1110,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,47 +1124,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,13 +1153,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,31 +1189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,19 +1207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,6 +1231,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1261,7 +1249,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,31 +1291,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,25 +1327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,6 +1401,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1412,24 +1436,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,6 +1455,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1464,44 +1490,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1519,130 +1519,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1998,10 +1998,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A89"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2252,7 +2252,7 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2274,7 +2274,7 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2308,7 +2308,7 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2346,7 +2346,7 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -2355,12 +2355,12 @@
       <c r="C17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>47</v>
@@ -2368,7 +2368,7 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -2377,14 +2377,10 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7">
-        <v>4</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
@@ -2398,14 +2394,14 @@
         <v>20</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -2419,7 +2415,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>49</v>
@@ -2434,22 +2430,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -2463,10 +2457,14 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="7">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
@@ -2474,68 +2472,62 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E25" s="9">
         <v>2</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="H25" s="10"/>
     </row>
@@ -2544,25 +2536,27 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1000</v>
+      </c>
       <c r="F26" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -2572,7 +2566,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="10" t="s">
@@ -2588,27 +2582,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="7">
-        <v>10001</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -2618,34 +2610,38 @@
         <v>20</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="E30" s="7">
-        <v>5</v>
+        <v>10001</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -2654,19 +2650,21 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
@@ -2674,22 +2672,18 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7">
+        <v>5</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="H32" s="8"/>
     </row>
@@ -2698,23 +2692,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>85</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
@@ -2728,16 +2718,16 @@
         <v>20</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H34" s="8"/>
     </row>
@@ -2752,21 +2742,21 @@
         <v>20</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -2776,38 +2766,40 @@
         <v>20</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="F37" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="H37" s="10"/>
     </row>
@@ -2816,40 +2808,44 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="9">
-        <v>5</v>
-      </c>
+      <c r="C39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="H39" s="10"/>
     </row>
@@ -2858,66 +2854,64 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9">
+        <v>5</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="H42" s="8"/>
     </row>
@@ -2926,22 +2920,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>113</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H43" s="10"/>
     </row>
@@ -2950,22 +2942,20 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E44" s="7"/>
       <c r="F44" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -2974,22 +2964,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="9">
-        <v>10001</v>
+        <v>112</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="H45" s="10"/>
     </row>
@@ -3004,16 +2994,16 @@
         <v>15</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H46" s="8"/>
     </row>
@@ -3022,23 +3012,27 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="E47" s="9">
+        <v>10001</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -3048,17 +3042,21 @@
         <v>15</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="7">
-        <v>9876543210</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -3068,10 +3066,10 @@
         <v>20</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -3082,41 +3080,39 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E50" s="7">
+        <v>9876543210</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="9">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="9">
-        <v>4</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8">
@@ -3127,62 +3123,56 @@
         <v>14</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9">
+        <v>4</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="9">
-        <v>53</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
@@ -3190,22 +3180,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="H55" s="10"/>
     </row>
@@ -3220,16 +3210,16 @@
         <v>15</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="H56" s="8"/>
     </row>
@@ -3244,16 +3234,16 @@
         <v>20</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="H57" s="10"/>
     </row>
@@ -3262,22 +3252,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="H58" s="8"/>
     </row>
@@ -3286,27 +3276,27 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" s="9">
-        <v>10001</v>
+        <v>145</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="9">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -3316,40 +3306,40 @@
         <v>15</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="7">
-        <v>9789123456</v>
+        <v>147</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="7">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="E61" s="9">
+        <v>10001</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H61" s="10"/>
     </row>
@@ -3358,40 +3348,46 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E62" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="E62" s="7">
+        <v>9789123456</v>
+      </c>
       <c r="F62" s="8" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="9">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="H63" s="10"/>
     </row>
@@ -3400,27 +3396,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>160</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E64" s="7"/>
       <c r="F64" s="8" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="7">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -3429,27 +3423,37 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="9">
-        <v>2</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="9">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="F66" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H66" s="8"/>
     </row>
@@ -3458,23 +3462,15 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>169</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9">
+        <v>2</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8">
@@ -3482,20 +3478,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>170</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="7"/>
       <c r="F68" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H68" s="8"/>
     </row>
@@ -3510,16 +3502,16 @@
         <v>20</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H69" s="10"/>
     </row>
@@ -3534,14 +3526,14 @@
         <v>15</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H70" s="8"/>
     </row>
@@ -3550,62 +3542,68 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D73" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E73" s="9">
         <v>1235647899</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F73" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="G73" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="9">
-        <v>71</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="7">
-        <v>72</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="H73" s="10"/>
     </row>
@@ -3614,27 +3612,21 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E74" s="7">
-        <v>97890456789</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="9">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
@@ -3644,14 +3636,14 @@
         <v>20</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H75" s="10"/>
     </row>
@@ -3660,47 +3652,59 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+        <v>186</v>
+      </c>
+      <c r="E76" s="7">
+        <v>97890456789</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
+      <c r="A77" s="9">
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="9">
-        <v>4</v>
-      </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="9">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="8"/>
@@ -3717,7 +3721,7 @@
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -3731,18 +3735,14 @@
         <v>14</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="E80" s="7"/>
-      <c r="F80" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
@@ -3755,7 +3755,7 @@
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
@@ -3769,17 +3769,17 @@
         <v>14</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="8" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="H82" s="8"/>
     </row>
@@ -3793,50 +3793,48 @@
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="9">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="F84" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="7">
+      <c r="A85" s="9">
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>201</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9">
+        <v>4</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8">
@@ -3844,33 +3842,39 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="7">
-        <v>1</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="7"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="9">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8">
@@ -3883,14 +3887,14 @@
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
+      <c r="A89" s="9">
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
@@ -3900,23 +3904,57 @@
         <v>20</v>
       </c>
       <c r="D89" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="7">
+        <v>4</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="10" t="s">
+      <c r="E91" s="9"/>
+      <c r="F91" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H89" s="10"/>
+      <c r="H91" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B14 B15 B1:B12 B16:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B14 B15 B16 B17 B18 B1:B12 B19:B1048576">
       <formula1>DataList!$C$2:$C$118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C14 C15 C1:C12 C16:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13 C14 C15 C16 C17 C18 C1:C12 C19:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -10,6 +10,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385">
   <si>
     <t>Step No</t>
   </si>
@@ -472,10 +476,46 @@
     <t>Email entered</t>
   </si>
   <si>
+    <t>SAVE_PROGRESS_BUTTON</t>
+  </si>
+  <si>
+    <t>OK_BUTTON</t>
+  </si>
+  <si>
+    <t>INCOMPLETE_APPLICATION</t>
+  </si>
+  <si>
+    <t>Click on view incomplete link</t>
+  </si>
+  <si>
+    <t>View incomplete link clicked</t>
+  </si>
+  <si>
+    <t>COMPLETE_APPLICATION</t>
+  </si>
+  <si>
+    <t>Click on Complete application link</t>
+  </si>
+  <si>
+    <t>Complete application link clicked</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>POLICY_DETAIL_TITLE</t>
+  </si>
+  <si>
+    <t>Verify Policy Detail Title</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
     <t>APP_PRI_INSURANCE</t>
   </si>
   <si>
-    <t>Conseco</t>
+    <t>Cons</t>
   </si>
   <si>
     <t>Enter Insurance name</t>
@@ -508,6 +548,9 @@
     <t>APP_INS_NUMBER</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Enter Policy number</t>
   </si>
   <si>
@@ -526,6 +569,9 @@
     <t>APP_SUBS_NAME</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>Enter Subscriber name</t>
   </si>
   <si>
@@ -571,46 +617,262 @@
     <t>Yes clicked</t>
   </si>
   <si>
-    <t>SAVE_PROGRESS_BUTTON</t>
-  </si>
-  <si>
-    <t>OK_BUTTON</t>
-  </si>
-  <si>
-    <t>INCOMPLETE_APPLICATION</t>
-  </si>
-  <si>
-    <t>Click on view incomplete link</t>
-  </si>
-  <si>
-    <t>View incomplete link clicked</t>
-  </si>
-  <si>
-    <t>COMPLETE_APPLICATION</t>
-  </si>
-  <si>
-    <t>Click on Complete application link</t>
-  </si>
-  <si>
-    <t>Complete application link clicked</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>POLICY_DETAIL_TITLE</t>
-  </si>
-  <si>
-    <t>CANCEL_LINK</t>
-  </si>
-  <si>
-    <t>Click on Cancel link</t>
-  </si>
-  <si>
-    <t>Cancel link clicked</t>
-  </si>
-  <si>
-    <t>CONFIRM_BUTTON_POPUP</t>
+    <t>APP_MEDI_SERVICE</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for medical services:</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>APP_PHARMACY_BENEFITS</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_SUPP_NO</t>
+  </si>
+  <si>
+    <t>Does the patient have a Medicare Supplement?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>APP_COBRA _EFFECT_NO</t>
+  </si>
+  <si>
+    <t>Is insurance coverage continuation under COBRA in effect?</t>
+  </si>
+  <si>
+    <t>PHYSICIAN_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PRIMAY_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
+  </si>
+  <si>
+    <t>SELF_LASTPAGE</t>
+  </si>
+  <si>
+    <t>Check Self</t>
+  </si>
+  <si>
+    <t>Self checked</t>
+  </si>
+  <si>
+    <t>AGREE_CHECKBOX_STEP7</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
   </si>
   <si>
     <t>PATIENT_LOGOUT</t>
@@ -695,9 +957,6 @@
   </si>
   <si>
     <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetText</t>
   </si>
   <si>
     <t>GetAttribute</t>
@@ -935,7 +1194,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,14 +1219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,25 +1235,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1010,9 +1289,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,83 +1357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,7 +1384,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,13 +1426,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,13 +1474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,67 +1498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,13 +1516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,13 +1534,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,25 +1564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,16 +1618,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,6 +1637,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,22 +1665,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,31 +1697,27 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1481,134 +1735,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1616,12 +1870,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1681,6 +1931,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1959,10 +2239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A86"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2008,190 +2288,190 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2199,7 +2479,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>4</v>
       </c>
       <c r="F11" s="8"/>
@@ -2210,26 +2490,26 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2237,7 +2517,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>5</v>
       </c>
       <c r="F13" s="8"/>
@@ -2248,26 +2528,26 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2275,7 +2555,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>4</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -2290,26 +2570,26 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2317,7 +2597,7 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>5</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -2332,28 +2612,28 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2361,7 +2641,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>2</v>
       </c>
       <c r="F19" s="8"/>
@@ -2372,28 +2652,28 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2405,7 +2685,7 @@
       <c r="D21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>1000</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -2420,26 +2700,26 @@
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2451,7 +2731,7 @@
       <c r="D23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
         <v>55</v>
       </c>
@@ -2464,26 +2744,26 @@
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -2495,7 +2775,7 @@
       <c r="D25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <v>10001</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -2510,26 +2790,26 @@
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -2537,7 +2817,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>5</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -2552,24 +2832,24 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2581,7 +2861,7 @@
       <c r="D29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -2596,28 +2876,28 @@
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -2629,7 +2909,7 @@
       <c r="D31" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>77</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -2644,28 +2924,28 @@
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -2677,7 +2957,7 @@
       <c r="D33" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -2692,26 +2972,26 @@
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10" t="s">
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -2723,7 +3003,7 @@
       <c r="D35" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
         <v>90</v>
       </c>
@@ -2736,24 +3016,24 @@
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="9">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7">
         <v>5</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -2765,7 +3045,7 @@
       <c r="D37" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>93</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -2780,26 +3060,26 @@
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -2811,7 +3091,7 @@
       <c r="D39" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
         <v>100</v>
       </c>
@@ -2824,28 +3104,28 @@
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="C40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -2857,7 +3137,7 @@
       <c r="D41" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -2872,28 +3152,28 @@
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="7">
         <v>10001</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="10"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2905,7 +3185,7 @@
       <c r="D43" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -2920,24 +3200,24 @@
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -2949,7 +3229,7 @@
       <c r="D45" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>9876543210</v>
       </c>
       <c r="F45" s="8"/>
@@ -2960,24 +3240,24 @@
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -2989,7 +3269,7 @@
       <c r="D47" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
         <v>90</v>
       </c>
@@ -3002,24 +3282,24 @@
       <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="9">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7">
         <v>4</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -3031,7 +3311,7 @@
       <c r="D49" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="7"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -3040,28 +3320,28 @@
       <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -3073,7 +3353,7 @@
       <c r="D51" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="8" t="s">
         <v>125</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -3088,28 +3368,28 @@
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H52" s="10"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -3121,7 +3401,7 @@
       <c r="D53" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="8" t="s">
         <v>132</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -3136,28 +3416,28 @@
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="C54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="10"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="9">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -3169,7 +3449,7 @@
       <c r="D55" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F55" s="8" t="s">
@@ -3184,28 +3464,28 @@
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="7">
         <v>10001</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="9">
+      <c r="A57" s="8">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -3217,7 +3497,7 @@
       <c r="D57" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="8">
         <v>9789123456</v>
       </c>
       <c r="F57" s="8" t="s">
@@ -3232,28 +3512,28 @@
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="9">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3265,7 +3545,7 @@
       <c r="D59" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E59" s="7"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
         <v>90</v>
       </c>
@@ -3278,123 +3558,109 @@
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="9">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7">
         <v>4</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="10"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>152</v>
-      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="9">
-        <v>2</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7">
+        <v>4</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="9">
+      <c r="A63" s="8">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>155</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H64" s="10"/>
+      <c r="B64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7">
+        <v>5</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="9">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -3402,45 +3668,37 @@
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F66" s="10" t="s">
+      <c r="B66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7">
+        <v>3</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G66" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="9">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="7"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H67" s="8"/>
     </row>
@@ -3448,199 +3706,215 @@
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="9">
-        <v>1235647899</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H68" s="10"/>
+      <c r="B68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7">
+        <v>4</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="9">
+      <c r="A69" s="8">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H70" s="10"/>
+      <c r="B70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="9">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="7">
-        <v>97890456789</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>178</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="H72" s="10"/>
+      <c r="B72" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="9">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="9">
-        <v>4</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="B74" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="9">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="9">
-        <v>5</v>
-      </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
+      <c r="B76" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="9">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="8">
+        <v>1235647899</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8" t="s">
+      <c r="G77" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="H77" s="8"/>
     </row>
@@ -3648,20 +3922,22 @@
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="9">
-        <v>3</v>
-      </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
+      <c r="B78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="9">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -3673,7 +3949,7 @@
       <c r="D79" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="7"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="8" t="s">
         <v>188</v>
       </c>
@@ -3686,137 +3962,1612 @@
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="9">
-        <v>4</v>
-      </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
+      <c r="B80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E80" s="7">
+        <v>97890456789</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="9">
+      <c r="A81" s="8">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+        <v>193</v>
+      </c>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H82" s="10"/>
+      <c r="B82" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1230</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="9">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="7">
-        <v>1</v>
-      </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="8">
+        <v>1550</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>198</v>
+      </c>
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+      <c r="C84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="9">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="7">
-        <v>4</v>
-      </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="H86" s="10"/>
+      <c r="C86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="8">
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8">
+        <v>4</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="1:8">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="1:8">
+      <c r="A91" s="8">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8">
+        <v>4</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" s="4" customFormat="1" spans="1:8">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" s="4" customFormat="1" spans="1:8">
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8">
+        <v>5</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" s="4" customFormat="1" spans="1:8">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" s="4" customFormat="1" spans="1:8">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8">
+        <v>3</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" s="4" customFormat="1" spans="1:8">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" s="4" customFormat="1" spans="1:8">
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8">
+        <v>4</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="8">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7">
+        <v>4</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" s="4" customFormat="1" spans="1:8">
+      <c r="A101" s="8">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:8">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7">
+        <v>4</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="1:8">
+      <c r="A103" s="8">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" s="4" customFormat="1" spans="1:8">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7">
+        <v>5</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" s="4" customFormat="1" spans="1:8">
+      <c r="A105" s="8">
+        <v>104</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="1:8">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7">
+        <v>3</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="1:8">
+      <c r="A107" s="8">
+        <v>106</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" s="4" customFormat="1" spans="1:8">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7">
+        <v>4</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="8">
+        <v>108</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H109" s="8"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7">
+        <v>2</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H117" s="8"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8">
+        <v>4</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" s="4" customFormat="1" spans="1:8">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" s="4" customFormat="1" spans="1:8">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8">
+        <v>4</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" s="4" customFormat="1" spans="1:8">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" s="4" customFormat="1" spans="1:8">
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8">
+        <v>5</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" s="4" customFormat="1" spans="1:8">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" s="4" customFormat="1" spans="1:8">
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8">
+        <v>3</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+    </row>
+    <row r="126" s="4" customFormat="1" spans="1:8">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" s="4" customFormat="1" spans="1:8">
+      <c r="A127" s="8">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8">
+        <v>4</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7">
+        <v>4</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="8">
+        <v>128</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7">
+        <v>4</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="7"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="8">
+        <v>130</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H131" s="8"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7">
+        <v>1</v>
+      </c>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="8">
+        <v>132</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7">
+        <v>1</v>
+      </c>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="8">
+        <v>134</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H135" s="8"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7">
+        <v>3</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="8">
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H137" s="8"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7">
+        <v>3</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="8">
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H139" s="8"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="8">
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8">
+        <v>2</v>
+      </c>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="7">
+        <v>141</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E144" s="7">
+        <v>9889656446</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="8">
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="7">
+        <v>145</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7">
+        <v>4</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="8">
+        <v>146</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H147" s="8"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="7">
+        <v>147</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="8">
+        <v>148</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H149" s="8"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="7">
+        <v>149</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="8">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H151" s="8"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="7">
+        <v>151</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="8">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H153" s="8"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="7">
+        <v>153</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="8">
+        <v>154</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="7">
+        <v>155</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7">
+        <v>5</v>
+      </c>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="8">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H157" s="8"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="4">
+        <v>5</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B10 B11 B12 B13 B1:B3 B7:B9 B14:B1048576">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B10 B11 B12 B13 B69 B1:B3 B7:B9 B14:B60 B61:B64 B65:B68 B90:B93 B94:B97 B101:B104 B105:B108 B120:B123 B124:B127 B158:B1048576">
       <formula1>DataList!$C$2:$C$118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C1:C3 C7:C9 C14:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C69 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C90:C93 C94:C97 C101:C104 C105:C108 C120:C123 C124:C127 C158:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C88">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C99 C129">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128 B136 B138 B139 B157 B73:B89 B98:B100 B109:B119 B129:B130 B131:B134 B141:B156">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70:B72 C70:C72">
+      <formula1>DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3846,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3854,20 +5605,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3878,20 +5629,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3899,47 +5650,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -3949,12 +5700,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -3964,55 +5715,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>225</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>230</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4022,359 +5773,359 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>239</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>241</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>244</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>252</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>253</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>265</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>266</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>272</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>277</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>281</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>289</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>290</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>292</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>293</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>294</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>296</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -4389,12 +6140,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>298</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -1191,8 +1191,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1221,15 +1221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,30 +1237,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,9 +1274,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1290,14 +1288,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,15 +1317,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1335,12 +1334,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1348,16 +1348,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,13 +1384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,7 +1402,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,7 +1462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,55 +1486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,19 +1498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,19 +1510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,7 +1528,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,19 +1564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,6 +1617,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1635,32 +1659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1697,6 +1697,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1705,19 +1714,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1735,130 +1735,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2239,10 +2239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4764,806 +4764,604 @@
       </c>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" s="4" customFormat="1" spans="1:8">
+    <row r="120" spans="1:8">
       <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" s="4" customFormat="1" spans="1:8">
+      <c r="C120" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H120" s="8"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8">
-        <v>4</v>
-      </c>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-    </row>
-    <row r="122" s="4" customFormat="1" spans="1:8">
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7">
+        <v>1</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-    </row>
-    <row r="123" s="4" customFormat="1" spans="1:8">
+      <c r="C122" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="8">
         <v>122</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8">
-        <v>5</v>
-      </c>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" s="4" customFormat="1" spans="1:8">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7">
+        <v>1</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H124" s="7"/>
-    </row>
-    <row r="125" s="4" customFormat="1" spans="1:8">
+      <c r="C124" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="8">
         <v>124</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7">
         <v>3</v>
       </c>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-    </row>
-    <row r="126" s="4" customFormat="1" spans="1:8">
+      <c r="F125" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H126" s="7"/>
-    </row>
-    <row r="127" s="4" customFormat="1" spans="1:8">
+      <c r="C126" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8">
-        <v>4</v>
-      </c>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7">
+        <v>3</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7">
-        <v>4</v>
-      </c>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
+      <c r="B128" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="8">
         <v>128</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H129" s="8"/>
+      <c r="C129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7">
-        <v>4</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="7"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8">
+        <v>2</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="H131" s="8"/>
+      <c r="B131" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7">
-        <v>1</v>
-      </c>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
+      <c r="B132" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
+      <c r="B133" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E133" s="7">
+        <v>9889656446</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H133" s="7"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7">
-        <v>1</v>
-      </c>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
+      <c r="B134" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H135" s="8"/>
+      <c r="B135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7">
+        <v>4</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7">
-        <v>3</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H136" s="7"/>
+      <c r="B136" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H137" s="8"/>
+      <c r="B137" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H137" s="7"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7">
-        <v>3</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H138" s="7"/>
+      <c r="B138" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H139" s="8"/>
+      <c r="B139" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H140" s="7"/>
+      <c r="B140" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8">
-        <v>2</v>
-      </c>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
+      <c r="B141" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H142" s="7"/>
+      <c r="B142" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H143" s="8"/>
+      <c r="B143" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H143" s="7"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E144" s="7">
-        <v>9889656446</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H144" s="7"/>
+      <c r="B144" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="H145" s="8"/>
+      <c r="B145" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7">
+        <v>5</v>
+      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7">
-        <v>4</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="B146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H146" s="8"/>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H147" s="8"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="7">
-        <v>147</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H148" s="7"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="8">
-        <v>148</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H149" s="8"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="7">
-        <v>149</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H150" s="7"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="8">
-        <v>150</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G151" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H151" s="8"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="7">
-        <v>151</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H152" s="7"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="8">
-        <v>152</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H153" s="8"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="7">
-        <v>153</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H154" s="7"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="8">
-        <v>154</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G155" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H155" s="8"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="7">
-        <v>155</v>
-      </c>
-      <c r="B156" s="7" t="s">
+      <c r="B147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7">
+      <c r="E147" s="4">
         <v>5</v>
       </c>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="8">
-        <v>156</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H157" s="8"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="4">
-        <v>157</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="4">
-        <v>5</v>
-      </c>
-      <c r="F158" s="4" t="s">
+      <c r="F147" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G158" s="4" t="s">
+      <c r="G147" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B10 B11 B12 B13 B69 B1:B3 B7:B9 B14:B60 B61:B64 B65:B68 B90:B93 B94:B97 B101:B104 B105:B108 B120:B123 B124:B127 B158:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B10 B11 B12 B13 B69 B1:B3 B7:B9 B14:B60 B61:B64 B65:B68 B90:B93 B94:B97 B101:B104 B105:B108 B147:B1048576">
       <formula1>DataList!$C$2:$C$118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C69 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C90:C93 C94:C97 C101:C104 C105:C108 C120:C123 C124:C127 C158:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C69 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C90:C93 C94:C97 C101:C104 C105:C108 C147:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C88">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C99 C129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C99">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128 B136 B138 B139 B157 B73:B89 B98:B100 B109:B119 B129:B130 B131:B134 B141:B156">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125 B127 B128 B146 B73:B89 B98:B100 B109:B119 B120:B123 B130:B145">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70:B72 C70:C72">

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382">
   <si>
     <t>Step No</t>
   </si>
@@ -500,592 +500,583 @@
     <t>Complete application link clicked</t>
   </si>
   <si>
+    <t>APP_PRI_INSURANCE</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>Enter Insurance name</t>
+  </si>
+  <si>
+    <t>Insurance entered</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Select Insurance type</t>
+  </si>
+  <si>
+    <t>Insurance selected</t>
+  </si>
+  <si>
+    <t>APP_PLANTYPE</t>
+  </si>
+  <si>
+    <t>EPO</t>
+  </si>
+  <si>
+    <t>Select Plan type</t>
+  </si>
+  <si>
+    <t>Plan type selected</t>
+  </si>
+  <si>
+    <t>APP_INS_NUMBER</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Enter Policy number</t>
+  </si>
+  <si>
+    <t>Policy number entered</t>
+  </si>
+  <si>
+    <t>APP_INS_TYPE</t>
+  </si>
+  <si>
+    <t>Medicare</t>
+  </si>
+  <si>
+    <t>Insurance type selected</t>
+  </si>
+  <si>
+    <t>APP_SUBS_NAME</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Enter Subscriber name</t>
+  </si>
+  <si>
+    <t>Subscriber name entered</t>
+  </si>
+  <si>
+    <t>APP_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>Enter Group name</t>
+  </si>
+  <si>
+    <t>Group name entered</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB_DATE</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Date selected</t>
+  </si>
+  <si>
+    <t>APP_PRIM_TEL</t>
+  </si>
+  <si>
+    <t>Enter Primary Phone number</t>
+  </si>
+  <si>
+    <t>Primary phone number entered</t>
+  </si>
+  <si>
+    <t>APP_PRESCRI_DRUG</t>
+  </si>
+  <si>
+    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
+  </si>
+  <si>
+    <t>Yes clicked</t>
+  </si>
+  <si>
+    <t>APP_MEDI_SERVICE</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for medical services:</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>APP_PHARMACY_BENEFITS</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_SUPP_NO</t>
+  </si>
+  <si>
+    <t>Does the patient have a Medicare Supplement?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>APP_COBRA _EFFECT_NO</t>
+  </si>
+  <si>
+    <t>Is insurance coverage continuation under COBRA in effect?</t>
+  </si>
+  <si>
+    <t>PHYSICIAN_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PRIMAY_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
+  </si>
+  <si>
+    <t>SELF_LASTPAGE</t>
+  </si>
+  <si>
+    <t>Check Self</t>
+  </si>
+  <si>
+    <t>Self checked</t>
+  </si>
+  <si>
+    <t>AGREE_CHECKBOX_STEP7</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>DismissAlert</t>
+  </si>
+  <si>
+    <t>AlertDismiss</t>
+  </si>
+  <si>
+    <t>PromptBox</t>
+  </si>
+  <si>
+    <t>GenerateAlert</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>GetWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultWindow</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultContent</t>
+  </si>
+  <si>
+    <t>GetAutoIt</t>
+  </si>
+  <si>
+    <t>ScrollDown</t>
+  </si>
+  <si>
+    <t>ScrollUp</t>
+  </si>
+  <si>
+    <t>ScrollBottom</t>
+  </si>
+  <si>
+    <t>KeyboardPageUp</t>
+  </si>
+  <si>
+    <t>KeyboardPageDown</t>
+  </si>
+  <si>
+    <t>KeyboardEnd</t>
+  </si>
+  <si>
+    <t>KeyboardTab</t>
+  </si>
+  <si>
+    <t>PageMaximize</t>
+  </si>
+  <si>
+    <t>KeyboardArrowUp</t>
+  </si>
+  <si>
+    <t>KeyboardArrowDown</t>
+  </si>
+  <si>
+    <t>KeyboardArrowLeft</t>
+  </si>
+  <si>
+    <t>KeyboardArrowRight</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>VerifyElementIsSelected</t>
+  </si>
+  <si>
     <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>POLICY_DETAIL_TITLE</t>
-  </si>
-  <si>
-    <t>Verify Policy Detail Title</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>APP_PRI_INSURANCE</t>
-  </si>
-  <si>
-    <t>Cons</t>
-  </si>
-  <si>
-    <t>Enter Insurance name</t>
-  </si>
-  <si>
-    <t>Insurance entered</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>Select Insurance type</t>
-  </si>
-  <si>
-    <t>Insurance selected</t>
-  </si>
-  <si>
-    <t>APP_PLANTYPE</t>
-  </si>
-  <si>
-    <t>EPO</t>
-  </si>
-  <si>
-    <t>Select Plan type</t>
-  </si>
-  <si>
-    <t>Plan type selected</t>
-  </si>
-  <si>
-    <t>APP_INS_NUMBER</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Enter Policy number</t>
-  </si>
-  <si>
-    <t>Policy number entered</t>
-  </si>
-  <si>
-    <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
-  </si>
-  <si>
-    <t>Insurance type selected</t>
-  </si>
-  <si>
-    <t>APP_SUBS_NAME</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Enter Subscriber name</t>
-  </si>
-  <si>
-    <t>Subscriber name entered</t>
-  </si>
-  <si>
-    <t>APP_GROUP_NAME</t>
-  </si>
-  <si>
-    <t>Enter Group name</t>
-  </si>
-  <si>
-    <t>Group name entered</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB_DATE</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Date selected</t>
-  </si>
-  <si>
-    <t>APP_PRIM_TEL</t>
-  </si>
-  <si>
-    <t>Enter Primary Phone number</t>
-  </si>
-  <si>
-    <t>Primary phone number entered</t>
-  </si>
-  <si>
-    <t>APP_PRESCRI_DRUG</t>
-  </si>
-  <si>
-    <t>Click No for Does this plan cover prescription drugs at the pharmacy and provider office?</t>
-  </si>
-  <si>
-    <t>Yes clicked</t>
-  </si>
-  <si>
-    <t>APP_MEDI_SERVICE</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for medical services:</t>
-  </si>
-  <si>
-    <t>Entered</t>
-  </si>
-  <si>
-    <t>APP_PHARMACY_BENEFITS</t>
-  </si>
-  <si>
-    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_PART_NO</t>
-  </si>
-  <si>
-    <t>Do you have Medicare Part D?</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_SUPP_NO</t>
-  </si>
-  <si>
-    <t>Does the patient have a Medicare Supplement?</t>
-  </si>
-  <si>
-    <t>No clicked</t>
-  </si>
-  <si>
-    <t>APP_SEC_INSURANCE_NO</t>
-  </si>
-  <si>
-    <t>Do you have Secondary Insurance?</t>
-  </si>
-  <si>
-    <t>APP_COBRA _EFFECT_NO</t>
-  </si>
-  <si>
-    <t>Is insurance coverage continuation under COBRA in effect?</t>
-  </si>
-  <si>
-    <t>PHYSICIAN_CHECKBOX</t>
-  </si>
-  <si>
-    <t>PRIMAY_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Type Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis entered</t>
-  </si>
-  <si>
-    <t>Select Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis selected</t>
-  </si>
-  <si>
-    <t>DATE_OF_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Select Diagnosis date</t>
-  </si>
-  <si>
-    <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
-  </si>
-  <si>
-    <t>SELF_LASTPAGE</t>
-  </si>
-  <si>
-    <t>Check Self</t>
-  </si>
-  <si>
-    <t>Self checked</t>
-  </si>
-  <si>
-    <t>AGREE_CHECKBOX_STEP7</t>
-  </si>
-  <si>
-    <t>AGREE_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on AGREE and Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button clicked </t>
-  </si>
-  <si>
-    <t>Wait for popup</t>
-  </si>
-  <si>
-    <t>Popup loaded</t>
-  </si>
-  <si>
-    <t>PATIENT_AGREE_CHECKBOX</t>
-  </si>
-  <si>
-    <t>Check agree box</t>
-  </si>
-  <si>
-    <t>Agree box checked</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Enter Signature</t>
-  </si>
-  <si>
-    <t>Signature entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_NAME</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Name entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
-  </si>
-  <si>
-    <t>SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>Click Sign and submit button</t>
-  </si>
-  <si>
-    <t>Sign and submit button clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>DismissAlert</t>
-  </si>
-  <si>
-    <t>AlertDismiss</t>
-  </si>
-  <si>
-    <t>PromptBox</t>
-  </si>
-  <si>
-    <t>GenerateAlert</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>GetWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultWindow</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultContent</t>
-  </si>
-  <si>
-    <t>GetAutoIt</t>
-  </si>
-  <si>
-    <t>ScrollDown</t>
-  </si>
-  <si>
-    <t>ScrollUp</t>
-  </si>
-  <si>
-    <t>ScrollBottom</t>
-  </si>
-  <si>
-    <t>KeyboardPageUp</t>
-  </si>
-  <si>
-    <t>KeyboardPageDown</t>
-  </si>
-  <si>
-    <t>KeyboardEnd</t>
-  </si>
-  <si>
-    <t>KeyboardTab</t>
-  </si>
-  <si>
-    <t>PageMaximize</t>
-  </si>
-  <si>
-    <t>KeyboardArrowUp</t>
-  </si>
-  <si>
-    <t>KeyboardArrowDown</t>
-  </si>
-  <si>
-    <t>KeyboardArrowLeft</t>
-  </si>
-  <si>
-    <t>KeyboardArrowRight</t>
-  </si>
-  <si>
-    <t>Drag</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>VerifyElementIsSelected</t>
   </si>
   <si>
     <t>VerifyElementIsNotPresent</t>
@@ -1191,8 +1182,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1219,9 +1210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,38 +1226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,43 +1238,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1334,7 +1258,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1348,16 +1339,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,7 +1375,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,13 +1429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,13 +1447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,19 +1465,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,55 +1519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,31 +1537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,7 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1617,6 +1608,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1635,8 +1650,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1652,30 +1667,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1717,7 +1708,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1735,130 +1726,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2239,10 +2230,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3627,7 +3618,7 @@
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="7">
+      <c r="A64" s="8">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -3643,7 +3634,7 @@
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3665,7 +3656,7 @@
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="7">
+      <c r="A66" s="8">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -3722,1649 +3713,1627 @@
       <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="E69" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H69" s="8"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="7">
+      <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="7" t="s">
+      <c r="B70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8">
+        <v>2</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="8">
-        <v>70</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8">
-        <v>2</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="7">
-        <v>71</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="E72" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H72" s="7"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="B73" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H73" s="8"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="B74" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H74" s="7"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="B75" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="F75" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H75" s="8"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="7">
+      <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="8">
+        <v>1235647899</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="G76" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="8">
-        <v>76</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E77" s="8">
-        <v>1235647899</v>
-      </c>
-      <c r="F77" s="8" t="s">
+      <c r="E78" s="8"/>
+      <c r="F78" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G78" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="7">
-        <v>77</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="B79" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="7">
+        <v>97890456789</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
+      <c r="G79" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H79" s="8"/>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="7" t="s">
+      <c r="B80" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E80" s="7">
-        <v>97890456789</v>
-      </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H80" s="7"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1230</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E82" s="8">
+        <v>1550</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="C83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G81" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="H81" s="8"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="7">
-        <v>81</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E82" s="7">
-        <v>1230</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="8">
-        <v>82</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="8" t="s">
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E83" s="8">
-        <v>1550</v>
-      </c>
-      <c r="F83" s="8" t="s">
+      <c r="E84" s="8"/>
+      <c r="F84" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G83" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H83" s="8"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="7">
-        <v>83</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="7" t="s">
+      <c r="G84" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H84" s="7"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="C85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H85" s="8"/>
+      <c r="G85" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G86" s="7" t="s">
+      <c r="C86" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="H86" s="7"/>
+      <c r="G86" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H87" s="8"/>
+      <c r="C87" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="7">
+      <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8">
+        <v>4</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" s="4" customFormat="1" spans="1:8">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D89" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="1:8">
+      <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="8">
-        <v>88</v>
-      </c>
-      <c r="B89" s="8" t="s">
+      <c r="B90" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8">
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8">
         <v>4</v>
       </c>
-      <c r="F89" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="8"/>
-    </row>
-    <row r="90" s="4" customFormat="1" spans="1:8">
-      <c r="A90" s="7">
-        <v>89</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" s="4" customFormat="1" spans="1:8">
       <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8">
-        <v>4</v>
-      </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
+      <c r="B91" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" s="4" customFormat="1" spans="1:8">
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+      <c r="B92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8">
+        <v>5</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" s="4" customFormat="1" spans="1:8">
       <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" s="4" customFormat="1" spans="1:8">
+      <c r="A94" s="8">
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8">
-        <v>5</v>
-      </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" s="4" customFormat="1" spans="1:8">
-      <c r="A94" s="7">
-        <v>93</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8">
+        <v>3</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" s="4" customFormat="1" spans="1:8">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H94" s="7"/>
-    </row>
-    <row r="95" s="4" customFormat="1" spans="1:8">
-      <c r="A95" s="8">
-        <v>94</v>
-      </c>
-      <c r="B95" s="8" t="s">
+      <c r="C95" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" s="4" customFormat="1" spans="1:8">
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8">
-        <v>3</v>
-      </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-    </row>
-    <row r="96" s="4" customFormat="1" spans="1:8">
-      <c r="A96" s="7">
-        <v>95</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="97" s="4" customFormat="1" spans="1:8">
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8">
+        <v>4</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8">
-        <v>4</v>
-      </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
+      <c r="B97" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
+      <c r="C98" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7">
+        <v>4</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" s="4" customFormat="1" spans="1:8">
+      <c r="A100" s="8">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H99" s="8"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="7">
-        <v>99</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="D100" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" s="4" customFormat="1" spans="1:8">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7">
         <v>4</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" s="4" customFormat="1" spans="1:8">
-      <c r="A101" s="8">
-        <v>100</v>
-      </c>
-      <c r="B101" s="8" t="s">
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:8">
+      <c r="A102" s="8">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-    </row>
-    <row r="102" s="4" customFormat="1" spans="1:8">
-      <c r="A102" s="7">
-        <v>101</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7">
-        <v>4</v>
-      </c>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
+      <c r="C102" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" s="4" customFormat="1" spans="1:8">
       <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
+      <c r="B103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7">
+        <v>5</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
     </row>
     <row r="104" s="4" customFormat="1" spans="1:8">
       <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7">
-        <v>5</v>
-      </c>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
+      <c r="B104" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" s="4" customFormat="1" spans="1:8">
       <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7">
+        <v>3</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="1:8">
+      <c r="A106" s="8">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H105" s="8"/>
-    </row>
-    <row r="106" s="4" customFormat="1" spans="1:8">
-      <c r="A106" s="7">
-        <v>105</v>
-      </c>
-      <c r="B106" s="7" t="s">
+      <c r="C106" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="1:8">
+      <c r="A107" s="7">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7">
-        <v>3</v>
-      </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-    </row>
-    <row r="107" s="4" customFormat="1" spans="1:8">
-      <c r="A107" s="8">
-        <v>106</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H107" s="8"/>
-    </row>
-    <row r="108" s="4" customFormat="1" spans="1:8">
-      <c r="A108" s="7">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7">
+        <v>4</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="8">
         <v>107</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7">
-        <v>4</v>
-      </c>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="B108" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H109" s="8"/>
+      <c r="B109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7">
+        <v>2</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7">
-        <v>2</v>
-      </c>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
+      <c r="B110" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="8">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8" t="s">
+      <c r="B111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="8">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H112" s="8"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="7">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H111" s="8"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="7">
-        <v>111</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="7" t="s">
+      <c r="E113" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="G113" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="8">
-        <v>112</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H113" s="8"/>
+      <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="7">
+      <c r="A114" s="8">
         <v>113</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="7" t="s">
+      <c r="B114" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="G114" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H114" s="7"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="8">
         <v>114</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8" t="s">
+      <c r="B115" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F115" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G115" s="8" t="s">
+      <c r="G115" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H115" s="8"/>
+      <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="G116" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="H116" s="7"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="8">
         <v>116</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C117" s="8" t="s">
+      <c r="B117" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8">
+        <v>4</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" s="8"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="7">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E119" s="8"/>
+      <c r="F119" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="G119" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G117" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H117" s="8"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="7">
-        <v>117</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H118" s="7"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="8">
-        <v>118</v>
-      </c>
-      <c r="B119" s="8" t="s">
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8">
-        <v>4</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="8"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="7">
-        <v>119</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="H120" s="8"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7">
+        <v>1</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="8">
         <v>120</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7">
-        <v>1</v>
-      </c>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
+      <c r="B121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
+      <c r="B122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7">
+        <v>1</v>
+      </c>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="8">
         <v>122</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="8">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7">
-        <v>1</v>
-      </c>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="7">
-        <v>123</v>
-      </c>
-      <c r="B124" s="8" t="s">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7">
+        <v>3</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="7">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="8" t="s">
+      <c r="C125" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H125" s="8"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="8">
+        <v>125</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7">
+        <v>3</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H124" s="8"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="8">
-        <v>124</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7">
-        <v>3</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H125" s="7"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="7">
-        <v>125</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H126" s="8"/>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="8">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7">
-        <v>3</v>
-      </c>
-      <c r="F127" s="7" t="s">
+      <c r="B127" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G127" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H127" s="7"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" s="8" t="s">
+      <c r="C128" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8" t="s">
+      <c r="G128" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G128" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="H128" s="8"/>
+      <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="8">
         <v>128</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="7" t="s">
+      <c r="B129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8">
+        <v>2</v>
+      </c>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="8">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E130" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7" t="s">
+      <c r="F130" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G129" s="7" t="s">
+      <c r="G130" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H129" s="7"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="7">
-        <v>129</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8">
-        <v>2</v>
-      </c>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="8">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G131" s="7" t="s">
+      <c r="G131" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="H131" s="7"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="7">
+      <c r="A132" s="8">
         <v>131</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C132" s="8" t="s">
+      <c r="B132" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E132" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H132" s="8"/>
+      <c r="E132" s="7">
+        <v>9889656446</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C133" s="7" t="s">
+      <c r="B133" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E133" s="7">
-        <v>9889656446</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H133" s="7"/>
+      <c r="D133" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="H134" s="8"/>
+      <c r="B134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7">
+        <v>4</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H134" s="7"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7">
-        <v>4</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H135" s="7"/>
+      <c r="B135" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="7">
+      <c r="A136" s="8">
         <v>135</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="8" t="s">
+      <c r="E136" s="7"/>
+      <c r="F136" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8" t="s">
+      <c r="G136" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="7">
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G136" s="8" t="s">
+      <c r="E137" s="8"/>
+      <c r="F137" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="H136" s="8"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="8">
-        <v>136</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="7" t="s">
+      <c r="G137" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H137" s="8"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7" t="s">
+      <c r="E138" s="7"/>
+      <c r="F138" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G137" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="7">
-        <v>137</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H138" s="8"/>
+      <c r="G138" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H138" s="7"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H139" s="7"/>
+      <c r="B139" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H139" s="8"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H140" s="8"/>
+      <c r="B140" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H140" s="7"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="7" t="s">
+      <c r="B141" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H141" s="8"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="8">
+        <v>141</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7" t="s">
+      <c r="E142" s="7"/>
+      <c r="F142" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G141" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H141" s="7"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="7">
-        <v>141</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="8" t="s">
+      <c r="G142" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="7">
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
+      <c r="E143" s="8"/>
+      <c r="F143" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="G142" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="8">
-        <v>142</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="7" t="s">
+      <c r="G143" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H143" s="7"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="7">
+      <c r="A144" s="8">
         <v>143</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H144" s="8"/>
+      <c r="B144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7">
+        <v>5</v>
+      </c>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7">
-        <v>5</v>
-      </c>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="B145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H146" s="8"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="8">
-        <v>146</v>
-      </c>
-      <c r="B147" s="4" t="s">
+      <c r="B146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E146" s="4">
         <v>5</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F146" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G146" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B10 B11 B12 B13 B69 B1:B3 B7:B9 B14:B60 B61:B64 B65:B68 B90:B93 B94:B97 B101:B104 B105:B108 B147:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B10 B11 B12 B13 B1:B3 B7:B9 B14:B60 B61:B64 B65:B68 B89:B92 B93:B96 B100:B103 B104:B107 B146:B1048576">
       <formula1>DataList!$C$2:$C$118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C69 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C90:C93 C94:C97 C101:C104 C105:C108 C147:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C96 C100:C103 C104:C107 C146:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C98">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125 B127 B128 B146 B73:B89 B98:B100 B109:B119 B120:B123 B130:B145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124 B126 B127 B145 B72:B88 B97:B99 B108:B118 B119:B122 B129:B144">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70:B72 C70:C72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B71 C69:C71">
       <formula1>DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5395,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5403,20 +5372,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5427,20 +5396,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5448,47 +5417,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5498,12 +5467,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5513,55 +5482,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5571,359 +5540,359 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5938,12 +5907,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365">
   <si>
     <t>Step No</t>
   </si>
@@ -800,151 +800,100 @@
     <t>Sign and submit button clicked</t>
   </si>
   <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
     <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
   </si>
   <si>
     <t>GetAttribute</t>
@@ -1210,9 +1159,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,8 +1174,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,63 +1206,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1324,16 +1229,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,6 +1269,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1375,7 +1324,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,13 +1372,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,37 +1426,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,91 +1480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,19 +1498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,23 +1560,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1650,23 +1593,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,11 +1614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1705,10 +1639,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1726,130 +1675,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2230,10 +2179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5068,20 +5017,20 @@
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="H135" s="8"/>
     </row>
@@ -5090,21 +5039,15 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>260</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7">
+        <v>5</v>
+      </c>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
       <c r="H136" s="7"/>
     </row>
     <row r="137" spans="1:8">
@@ -5112,216 +5055,46 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:7">
       <c r="A138" s="8">
         <v>137</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H138" s="7"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="8">
-        <v>138</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="7">
-        <v>139</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H140" s="7"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="8">
-        <v>140</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="H141" s="8"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="8">
-        <v>141</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H142" s="7"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="7">
-        <v>142</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="8">
-        <v>143</v>
-      </c>
-      <c r="B144" s="7" t="s">
+      <c r="B138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7">
+      <c r="E138" s="4">
         <v>5</v>
       </c>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="8">
-        <v>144</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H145" s="8"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="7">
-        <v>145</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" s="4">
-        <v>5</v>
-      </c>
-      <c r="F146" s="4" t="s">
+      <c r="F138" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G146" s="4" t="s">
+      <c r="G138" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B10 B11 B12 B13 B1:B3 B7:B9 B14:B60 B61:B64 B65:B68 B89:B92 B93:B96 B100:B103 B104:B107 B146:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B10 B11 B12 B13 B1:B3 B7:B9 B14:B60 B61:B64 B65:B68 B89:B92 B93:B96 B100:B103 B104:B107 B138:B1048576">
       <formula1>DataList!$C$2:$C$118</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C96 C100:C103 C104:C107 C146:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C96 C100:C103 C104:C107 C138:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
@@ -5330,7 +5103,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C98">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124 B126 B127 B145 B72:B88 B97:B99 B108:B118 B119:B122 B129:B144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124 B126 B127 B137 B72:B88 B97:B99 B108:B118 B119:B122 B129:B134 B135:B136">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B71 C69:C71">
@@ -5364,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5372,20 +5145,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5396,20 +5169,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5417,47 +5190,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5467,12 +5240,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5482,55 +5255,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5540,152 +5313,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5695,204 +5468,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5907,12 +5680,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -13,6 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405">
   <si>
     <t>Step No</t>
   </si>
@@ -647,15 +648,141 @@
     <t>Is insurance coverage continuation under COBRA in effect?</t>
   </si>
   <si>
+    <t>TRASH_PROVIDER_PAGE</t>
+  </si>
+  <si>
+    <t>Trash old provider</t>
+  </si>
+  <si>
+    <t>Trashed</t>
+  </si>
+  <si>
+    <t>SEARCH_PROVIDER</t>
+  </si>
+  <si>
+    <t>NAME_TAB_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Name tab</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>FACILITY/PRACTICE_NAME</t>
+  </si>
+  <si>
+    <t>Enter Facility name</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>CLICK_HERE_PROVIDER</t>
+  </si>
+  <si>
+    <t>PATIENT_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>PATIENT_LAST_NAME</t>
+  </si>
+  <si>
+    <t>NPI_PROVIDER_CREATE</t>
+  </si>
+  <si>
+    <t>Enter NPI</t>
+  </si>
+  <si>
+    <t>TAX_ID_PROVIDER</t>
+  </si>
+  <si>
+    <t>Enter TaxID</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE_EFT</t>
+  </si>
+  <si>
+    <t>Click EFT YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PAYMENT_YES</t>
+  </si>
+  <si>
+    <t>Click Auth Payment YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PHYSICIAN_YES</t>
+  </si>
+  <si>
+    <t>Click Auth physician Yes</t>
+  </si>
+  <si>
+    <t>PROV_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>PROV_SUITE_NO</t>
+  </si>
+  <si>
+    <t>PATIENT_STATE</t>
+  </si>
+  <si>
+    <t>PROV_CITY_CREATE</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>PROV_EXT</t>
+  </si>
+  <si>
+    <t>PROV_FAX</t>
+  </si>
+  <si>
+    <t>PATIENT_EMAIL</t>
+  </si>
+  <si>
+    <t>PROV_CONTACT_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>PROV_OFFICE_MAIL</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
     <t>PHYSICIAN_CHECKBOX</t>
   </si>
   <si>
     <t>PRIMAY_DIAGNOSIS</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Type Primary Diagnosis</t>
   </si>
   <si>
@@ -779,16 +906,10 @@
     <t>E_SIGNATURE_NAME</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Enter Name</t>
   </si>
   <si>
     <t>Name entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
   </si>
   <si>
     <t>SIGN_SUBMIT</t>
@@ -1129,12 +1250,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,10 +1281,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1174,17 +1293,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,32 +1323,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,31 +1354,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1283,7 +1401,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,13 +1415,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1324,7 +1450,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,13 +1540,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,115 +1606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,19 +1624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,14 +1640,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1559,9 +1691,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1590,11 +1724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1614,17 +1754,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1654,16 +1788,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1675,134 +1818,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1812,6 +1955,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1898,6 +2048,21 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2179,10 +2344,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3741,7 +3906,7 @@
       <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -3765,7 +3930,7 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="7">
+      <c r="A74" s="8">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -3789,7 +3954,7 @@
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -3877,7 +4042,7 @@
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="8">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -3901,7 +4066,7 @@
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="7">
+      <c r="A80" s="8">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -3923,7 +4088,7 @@
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="8">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -4015,7 +4180,7 @@
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="8">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -4037,7 +4202,7 @@
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="7">
+      <c r="A86" s="8">
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -4059,7 +4224,7 @@
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="8">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -4135,7 +4300,7 @@
       <c r="H90" s="8"/>
     </row>
     <row r="91" s="4" customFormat="1" spans="1:8">
-      <c r="A91" s="8">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -4153,7 +4318,7 @@
       <c r="H91" s="7"/>
     </row>
     <row r="92" s="4" customFormat="1" spans="1:8">
-      <c r="A92" s="7">
+      <c r="A92" s="8">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -4169,7 +4334,7 @@
       <c r="H92" s="8"/>
     </row>
     <row r="93" s="4" customFormat="1" spans="1:8">
-      <c r="A93" s="8">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -4244,869 +4409,1520 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
     </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="8">
+    <row r="97" s="4" customFormat="1" spans="1:8">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="7" t="s">
+      <c r="C97" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="7">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" s="4" customFormat="1" spans="1:8">
+      <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9">
+        <v>4</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" s="4" customFormat="1" spans="1:8">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C99" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H98" s="8"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="8">
-        <v>98</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7">
-        <v>4</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="7"/>
+      <c r="D99" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" s="4" customFormat="1" spans="1:8">
       <c r="A100" s="8">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
+      <c r="B100" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13">
+        <v>3</v>
+      </c>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
       <c r="H100" s="8"/>
     </row>
     <row r="101" s="4" customFormat="1" spans="1:8">
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:8">
+      <c r="A102" s="7"/>
+      <c r="B102" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7">
-        <v>4</v>
-      </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" s="4" customFormat="1" spans="1:8">
-      <c r="A102" s="8">
-        <v>101</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="13">
+        <v>2</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
       <c r="H102" s="8"/>
     </row>
     <row r="103" s="4" customFormat="1" spans="1:8">
       <c r="A103" s="8">
-        <v>102</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7">
-        <v>5</v>
-      </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" s="4" customFormat="1" spans="1:8">
       <c r="A104" s="7">
-        <v>103</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>153</v>
+      <c r="D104" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="H104" s="8"/>
     </row>
     <row r="105" s="4" customFormat="1" spans="1:8">
-      <c r="A105" s="8">
-        <v>104</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7">
-        <v>3</v>
-      </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" s="4" customFormat="1" spans="1:8">
       <c r="A106" s="8">
-        <v>105</v>
-      </c>
-      <c r="B106" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>156</v>
+      <c r="C106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="H106" s="8"/>
     </row>
     <row r="107" s="4" customFormat="1" spans="1:8">
       <c r="A107" s="7">
+        <v>104</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13">
+        <v>4</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" s="4" customFormat="1" spans="1:8">
+      <c r="A108" s="8">
+        <v>105</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" s="4" customFormat="1" spans="1:8">
+      <c r="A109" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7">
-        <v>4</v>
-      </c>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="8">
-        <v>107</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H108" s="8"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="8">
-        <v>108</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7">
-        <v>2</v>
-      </c>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="7">
-        <v>109</v>
-      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8">
+        <v>3</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+    </row>
+    <row r="110" s="4" customFormat="1" spans="1:8">
+      <c r="A110" s="7"/>
       <c r="B110" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="8">
-        <v>110</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="8">
-        <v>111</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="111" s="4" customFormat="1" spans="1:8">
+      <c r="A111" s="7"/>
+      <c r="B111" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" s="4" customFormat="1" spans="1:8">
+      <c r="A112" s="7"/>
+      <c r="B112" s="8"/>
       <c r="C112" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>183</v>
+        <v>15</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="7">
-        <v>112</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="7" t="s">
+    <row r="113" s="4" customFormat="1" spans="1:8">
+      <c r="A113" s="7"/>
+      <c r="B113" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="8"/>
+      <c r="F113" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F113" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H113" s="7"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="8">
-        <v>113</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="G113" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" s="4" customFormat="1" spans="1:8">
+      <c r="A114" s="7"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>226</v>
+      </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="8">
-        <v>114</v>
-      </c>
-      <c r="B115" s="7" t="s">
+    <row r="115" s="4" customFormat="1" spans="1:8">
+      <c r="A115" s="7"/>
+      <c r="B115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" s="4" customFormat="1" spans="1:8">
+      <c r="A116" s="7"/>
+      <c r="B116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="8"/>
+    </row>
+    <row r="117" s="4" customFormat="1" spans="1:8">
+      <c r="A117" s="7"/>
+      <c r="B117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="8"/>
+    </row>
+    <row r="118" s="4" customFormat="1" spans="1:8">
+      <c r="A118" s="7"/>
+      <c r="B118" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H118" s="8"/>
+    </row>
+    <row r="119" s="4" customFormat="1" spans="1:8">
+      <c r="A119" s="7"/>
+      <c r="B119" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" s="4" customFormat="1" spans="1:8">
+      <c r="A120" s="7"/>
+      <c r="B120" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+    </row>
+    <row r="121" s="4" customFormat="1" spans="1:8">
+      <c r="A121" s="7"/>
+      <c r="B121" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C121" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H115" s="7"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="7">
-        <v>115</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="H116" s="8"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="8">
-        <v>116</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H117" s="7"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="8">
-        <v>117</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8">
-        <v>4</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" s="8"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="7">
-        <v>118</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H119" s="8"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="8">
-        <v>119</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7">
-        <v>1</v>
-      </c>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="8">
-        <v>120</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E121" s="8"/>
+      <c r="D121" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="7">
-        <v>121</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7">
-        <v>1</v>
-      </c>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="8">
-        <v>122</v>
-      </c>
+    <row r="122" s="4" customFormat="1" spans="1:8">
+      <c r="A122" s="7"/>
+      <c r="B122" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E122" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" s="4" customFormat="1" spans="1:8">
+      <c r="A123" s="7"/>
       <c r="B123" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E123" s="8">
+        <v>9789045678</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" s="4" customFormat="1" spans="1:8">
+      <c r="A124" s="7"/>
+      <c r="B124" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" s="8">
+        <v>21331</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" s="4" customFormat="1" spans="1:8">
+      <c r="A125" s="8">
+        <v>107</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E125" s="8">
+        <v>97989898982</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+    </row>
+    <row r="126" s="4" customFormat="1" spans="1:8">
+      <c r="A126" s="7">
+        <v>108</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" s="4" customFormat="1" spans="1:8">
+      <c r="A127" s="8">
+        <v>109</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+    </row>
+    <row r="128" s="4" customFormat="1" spans="1:8">
+      <c r="A128" s="7">
+        <v>110</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" s="4" customFormat="1" spans="1:8">
+      <c r="A129" s="8">
+        <v>111</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="8">
-        <v>123</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7">
-        <v>3</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H124" s="7"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="7">
-        <v>124</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="H125" s="8"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="8">
-        <v>125</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7">
-        <v>3</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H126" s="7"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="8">
-        <v>126</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="7">
-        <v>127</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H128" s="7"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="8">
-        <v>128</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8">
-        <v>2</v>
-      </c>
+      <c r="C129" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
     </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="8">
-        <v>129</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H130" s="7"/>
+    <row r="130" s="4" customFormat="1" spans="1:8">
+      <c r="A130" s="7">
+        <v>112</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8">
+        <v>2</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="7">
-        <v>130</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E131" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H131" s="8"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="8">
+        <v>115</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="7">
+        <v>116</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7">
+        <v>4</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" s="4" customFormat="1" spans="1:8">
+      <c r="A134" s="8">
+        <v>117</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+    </row>
+    <row r="135" s="4" customFormat="1" spans="1:8">
+      <c r="A135" s="7">
+        <v>118</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7">
+        <v>4</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" s="4" customFormat="1" spans="1:8">
+      <c r="A136" s="8">
+        <v>119</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+    </row>
+    <row r="137" s="4" customFormat="1" spans="1:8">
+      <c r="A137" s="7">
+        <v>120</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7">
+        <v>5</v>
+      </c>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" s="4" customFormat="1" spans="1:8">
+      <c r="A138" s="8">
+        <v>121</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" s="4" customFormat="1" spans="1:8">
+      <c r="A139" s="7">
+        <v>122</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7">
+        <v>3</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" s="4" customFormat="1" spans="1:8">
+      <c r="A140" s="8">
+        <v>123</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H140" s="8"/>
+    </row>
+    <row r="141" s="4" customFormat="1" spans="1:8">
+      <c r="A141" s="7">
+        <v>124</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7">
+        <v>4</v>
+      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="8">
+        <v>125</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H142" s="8"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="7">
+        <v>126</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7">
+        <v>2</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="8">
+        <v>127</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="7">
+        <v>128</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="8">
+        <v>129</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H146" s="8"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="7">
+        <v>130</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="8">
         <v>131</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B148" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H148" s="8"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="7">
+        <v>132</v>
+      </c>
+      <c r="B149" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C149" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E132" s="7">
+      <c r="D149" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H149" s="7"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="8">
+        <v>133</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H150" s="8"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="7">
+        <v>134</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="8">
+        <v>135</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8">
+        <v>4</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" s="8"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="7">
+        <v>136</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H153" s="8"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="8">
+        <v>137</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7">
+        <v>1</v>
+      </c>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="7">
+        <v>138</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="8">
+        <v>139</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7">
+        <v>1</v>
+      </c>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="7">
+        <v>140</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H157" s="8"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="8">
+        <v>141</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7">
+        <v>3</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="7">
+        <v>142</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H159" s="8"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="8">
+        <v>143</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7">
+        <v>3</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="7">
+        <v>144</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H161" s="8"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="8">
+        <v>145</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="7">
+        <v>146</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8">
+        <v>2</v>
+      </c>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="8">
+        <v>147</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="7">
+        <v>148</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H165" s="8"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="8">
+        <v>149</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E166" s="7">
         <v>9889656446</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F166" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="G166" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H132" s="7"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="8">
-        <v>132</v>
-      </c>
-      <c r="B133" s="8" t="s">
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="7">
+        <v>150</v>
+      </c>
+      <c r="B167" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C167" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H133" s="8"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="7">
-        <v>133</v>
-      </c>
-      <c r="B134" s="7" t="s">
+      <c r="D167" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H167" s="8"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="8">
+        <v>151</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7">
         <v>4</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F168" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="G168" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H134" s="7"/>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="8">
-        <v>134</v>
-      </c>
-      <c r="B135" s="8" t="s">
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="7">
+        <v>152</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H135" s="8"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="8">
-        <v>135</v>
-      </c>
-      <c r="B136" s="7" t="s">
+      <c r="C169" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H169" s="8"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="8">
+        <v>153</v>
+      </c>
+      <c r="B170" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7">
         <v>5</v>
       </c>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="7">
-        <v>136</v>
-      </c>
-      <c r="B137" s="8" t="s">
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="7">
+        <v>154</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H137" s="8"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="8">
-        <v>137</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="C171" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H171" s="8"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="8">
+        <v>155</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E172" s="4">
         <v>5</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F172" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="G172" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B10 B11 B12 B13 B1:B3 B7:B9 B14:B60 B61:B64 B65:B68 B89:B92 B93:B96 B100:B103 B104:B107 B138:B1048576">
-      <formula1>DataList!$C$2:$C$118</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C96 C100:C103 C104:C107 C138:C1048576">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C96 C97:C98 C108:C109 C110:C112 C114:C124 C125:C130 C134:C137 C138:C141 C172:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113 B1:B106 B107:B109 B110:B112 B114:B124 B125:B130 B131:B1048576">
+      <formula1>DataList!$C$2:$C$109</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B124 B126 B127 B137 B72:B88 B97:B99 B108:B118 B119:B122 B129:B134 B135:B136">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69:B71 C69:C71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:C71">
       <formula1>DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5121,8 +5937,8 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5137,7 +5953,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5145,20 +5961,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5169,20 +5985,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5190,47 +6006,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5240,12 +6056,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5255,55 +6071,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5313,152 +6129,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5468,204 +6284,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5680,12 +6496,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -13,7 +13,6 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406">
   <si>
     <t>Step No</t>
   </si>
@@ -108,7 +107,7 @@
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Fname</t>
+    <t>Fname</t>
   </si>
   <si>
     <t>Enter First name</t>
@@ -120,7 +119,7 @@
     <t>LAST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Lname</t>
+    <t>Lname</t>
   </si>
   <si>
     <t>Enter last name</t>
@@ -492,7 +491,7 @@
     <t>View incomplete link clicked</t>
   </si>
   <si>
-    <t>COMPLETE_APPLICATION</t>
+    <t>ViewComplete</t>
   </si>
   <si>
     <t>Click on Complete application link</t>
@@ -700,6 +699,9 @@
   </si>
   <si>
     <t>PATIENT_LAST_NAME</t>
+  </si>
+  <si>
+    <t>TenDigitPhone</t>
   </si>
   <si>
     <t>NPI_PROVIDER_CREATE</t>
@@ -1250,10 +1252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1286,6 +1288,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1293,8 +1303,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,13 +1327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1323,8 +1335,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1339,30 +1388,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1376,37 +1417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1415,21 +1425,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1450,19 +1452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,13 +1464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,13 +1488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,7 +1506,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,79 +1578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,13 +1602,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,12 +1632,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1689,13 +1685,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,52 +1724,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1797,16 +1756,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1818,134 +1803,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1955,12 +1940,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2053,21 +2035,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
@@ -2078,7 +2045,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C101" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C102" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Actions"/>
   </tableColumns>
@@ -2346,8 +2313,8 @@
   <sheetPr/>
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3732,7 +3699,7 @@
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -3748,7 +3715,7 @@
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="7">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3770,7 +3737,7 @@
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -3790,14 +3757,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="8" t="s">
         <v>154</v>
       </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
         <v>155</v>
@@ -3805,7 +3768,9 @@
       <c r="G67" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
@@ -3848,7 +3813,7 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -3864,7 +3829,7 @@
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="7">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -3882,7 +3847,7 @@
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -3906,7 +3871,7 @@
       <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -3930,7 +3895,7 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -3954,7 +3919,7 @@
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -3978,7 +3943,7 @@
       <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="8">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -4002,7 +3967,7 @@
       <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -4020,7 +3985,7 @@
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="8">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -4042,7 +4007,7 @@
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -4066,7 +4031,7 @@
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="8">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -4088,7 +4053,7 @@
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="7">
+      <c r="A81" s="8">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -4112,7 +4077,7 @@
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="8">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -4136,7 +4101,7 @@
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -4158,7 +4123,7 @@
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="8">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -4180,7 +4145,7 @@
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -4202,7 +4167,7 @@
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="8">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -4224,7 +4189,7 @@
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="7">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -4246,7 +4211,7 @@
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="8">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -4266,7 +4231,7 @@
       <c r="H88" s="8"/>
     </row>
     <row r="89" s="4" customFormat="1" spans="1:8">
-      <c r="A89" s="7">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -4284,7 +4249,7 @@
       <c r="H89" s="7"/>
     </row>
     <row r="90" s="4" customFormat="1" spans="1:8">
-      <c r="A90" s="8">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -4300,7 +4265,7 @@
       <c r="H90" s="8"/>
     </row>
     <row r="91" s="4" customFormat="1" spans="1:8">
-      <c r="A91" s="7">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -4318,7 +4283,7 @@
       <c r="H91" s="7"/>
     </row>
     <row r="92" s="4" customFormat="1" spans="1:8">
-      <c r="A92" s="8">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -4334,7 +4299,7 @@
       <c r="H92" s="8"/>
     </row>
     <row r="93" s="4" customFormat="1" spans="1:8">
-      <c r="A93" s="7">
+      <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -4356,7 +4321,7 @@
       <c r="H93" s="7"/>
     </row>
     <row r="94" s="4" customFormat="1" spans="1:8">
-      <c r="A94" s="8">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -4372,29 +4337,27 @@
       <c r="H94" s="8"/>
     </row>
     <row r="95" s="4" customFormat="1" spans="1:8">
-      <c r="A95" s="7">
+      <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7" t="s">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G95" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H95" s="7"/>
+      <c r="H95" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="96" s="4" customFormat="1" spans="1:8">
-      <c r="A96" s="8">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -4410,230 +4373,234 @@
       <c r="H96" s="8"/>
     </row>
     <row r="97" s="4" customFormat="1" spans="1:8">
-      <c r="A97" s="7">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9" t="s">
+      <c r="E97" s="8"/>
+      <c r="F97" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="8" t="s">
         <v>208</v>
       </c>
       <c r="H97" s="8"/>
     </row>
     <row r="98" s="4" customFormat="1" spans="1:8">
-      <c r="A98" s="8">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8">
         <v>4</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H98" s="8"/>
     </row>
     <row r="99" s="4" customFormat="1" spans="1:8">
-      <c r="A99" s="7">
+      <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11" t="s">
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8" t="s">
         <v>201</v>
       </c>
       <c r="H99" s="8"/>
     </row>
     <row r="100" s="4" customFormat="1" spans="1:8">
-      <c r="A100" s="8">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7">
         <v>3</v>
       </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
       <c r="H100" s="8"/>
     </row>
     <row r="101" s="4" customFormat="1" spans="1:8">
-      <c r="A101" s="7">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13" t="s">
+      <c r="E101" s="7"/>
+      <c r="F101" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G101" s="13" t="s">
+      <c r="G101" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H101" s="8"/>
     </row>
     <row r="102" s="4" customFormat="1" spans="1:8">
-      <c r="A102" s="7"/>
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
       <c r="B102" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="13">
+      <c r="C102" s="7"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="7">
         <v>2</v>
       </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
       <c r="H102" s="8"/>
     </row>
     <row r="103" s="4" customFormat="1" spans="1:8">
       <c r="A103" s="8">
-        <v>101</v>
-      </c>
-      <c r="B103" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G103" s="8" t="s">
         <v>105</v>
       </c>
       <c r="H103" s="8"/>
     </row>
     <row r="104" s="4" customFormat="1" spans="1:8">
       <c r="A104" s="7">
-        <v>102</v>
-      </c>
-      <c r="B104" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13" t="s">
+      <c r="E104" s="7"/>
+      <c r="F104" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G104" s="13" t="s">
+      <c r="G104" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H104" s="8"/>
     </row>
     <row r="105" s="4" customFormat="1" spans="1:8">
-      <c r="A105" s="7"/>
-      <c r="B105" s="13" t="s">
+      <c r="A105" s="8">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D105" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13" t="s">
+      <c r="E105" s="7"/>
+      <c r="F105" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G105" s="13" t="s">
+      <c r="G105" s="7" t="s">
         <v>194</v>
       </c>
       <c r="H105" s="8"/>
     </row>
     <row r="106" s="4" customFormat="1" spans="1:8">
-      <c r="A106" s="8">
-        <v>103</v>
-      </c>
-      <c r="B106" s="11" t="s">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="12" t="s">
+      <c r="D106" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11" t="s">
+      <c r="E106" s="8"/>
+      <c r="F106" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="G106" s="11" t="s">
+      <c r="G106" s="8" t="s">
         <v>220</v>
       </c>
       <c r="H106" s="8"/>
     </row>
     <row r="107" s="4" customFormat="1" spans="1:8">
-      <c r="A107" s="7">
-        <v>104</v>
-      </c>
-      <c r="B107" s="13" t="s">
+      <c r="A107" s="8">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7">
         <v>4</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="F107" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="G107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H107" s="8"/>
     </row>
     <row r="108" s="4" customFormat="1" spans="1:8">
-      <c r="A108" s="8">
-        <v>105</v>
+      <c r="A108" s="7">
+        <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>19</v>
@@ -4641,7 +4608,7 @@
       <c r="C108" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="9" t="s">
         <v>221</v>
       </c>
       <c r="E108" s="8"/>
@@ -4650,8 +4617,8 @@
       <c r="H108" s="8"/>
     </row>
     <row r="109" s="4" customFormat="1" spans="1:8">
-      <c r="A109" s="7">
-        <v>106</v>
+      <c r="A109" s="8">
+        <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>11</v>
@@ -4666,14 +4633,16 @@
       <c r="H109" s="8"/>
     </row>
     <row r="110" s="4" customFormat="1" spans="1:8">
-      <c r="A110" s="7"/>
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
       <c r="B110" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D110" s="15" t="s">
+      <c r="D110" s="12" t="s">
         <v>222</v>
       </c>
       <c r="E110" s="8"/>
@@ -4686,14 +4655,16 @@
       <c r="H110" s="8"/>
     </row>
     <row r="111" s="4" customFormat="1" spans="1:8">
-      <c r="A111" s="7"/>
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
       <c r="B111" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="12" t="s">
         <v>223</v>
       </c>
       <c r="E111" s="8"/>
@@ -4706,17 +4677,21 @@
       <c r="H111" s="8"/>
     </row>
     <row r="112" s="4" customFormat="1" spans="1:8">
-      <c r="A112" s="7"/>
-      <c r="B112" s="8"/>
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="C112" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D112" s="15" t="s">
-        <v>224</v>
+      <c r="D112" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>194</v>
@@ -4724,14 +4699,16 @@
       <c r="H112" s="8"/>
     </row>
     <row r="113" s="4" customFormat="1" spans="1:8">
-      <c r="A113" s="7"/>
-      <c r="B113" s="13" t="s">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D113" s="15" t="s">
+      <c r="D113" s="12" t="s">
         <v>216</v>
       </c>
       <c r="E113" s="8"/>
@@ -4744,17 +4721,21 @@
       <c r="H113" s="8"/>
     </row>
     <row r="114" s="4" customFormat="1" spans="1:8">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8"/>
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>224</v>
+      </c>
       <c r="C114" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="15" t="s">
-        <v>226</v>
+      <c r="D114" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>194</v>
@@ -4762,19 +4743,21 @@
       <c r="H114" s="8"/>
     </row>
     <row r="115" s="4" customFormat="1" spans="1:8">
-      <c r="A115" s="7"/>
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
       <c r="B115" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D115" s="15" t="s">
-        <v>228</v>
+      <c r="D115" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>35</v>
@@ -4782,19 +4765,21 @@
       <c r="H115" s="8"/>
     </row>
     <row r="116" s="4" customFormat="1" spans="1:8">
-      <c r="A116" s="7"/>
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
       <c r="B116" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D116" s="15" t="s">
-        <v>230</v>
+      <c r="D116" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>35</v>
@@ -4802,19 +4787,21 @@
       <c r="H116" s="8"/>
     </row>
     <row r="117" s="4" customFormat="1" spans="1:8">
-      <c r="A117" s="7"/>
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
       <c r="B117" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="15" t="s">
-        <v>232</v>
+      <c r="D117" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>35</v>
@@ -4822,37 +4809,41 @@
       <c r="H117" s="8"/>
     </row>
     <row r="118" s="4" customFormat="1" spans="1:8">
-      <c r="A118" s="7"/>
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
       <c r="B118" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="10" t="s">
-        <v>234</v>
+      <c r="D118" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>94</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H118" s="8"/>
     </row>
     <row r="119" s="4" customFormat="1" spans="1:8">
-      <c r="A119" s="7"/>
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
       <c r="B119" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D119" s="15" t="s">
-        <v>237</v>
+      <c r="D119" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
@@ -4860,15 +4851,17 @@
       <c r="H119" s="8"/>
     </row>
     <row r="120" s="4" customFormat="1" spans="1:8">
-      <c r="A120" s="7"/>
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
       <c r="B120" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="15" t="s">
-        <v>238</v>
+      <c r="D120" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>213</v>
@@ -4878,32 +4871,36 @@
       <c r="H120" s="8"/>
     </row>
     <row r="121" s="4" customFormat="1" spans="1:8">
-      <c r="A121" s="7"/>
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
       <c r="B121" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D121" s="10" t="s">
-        <v>239</v>
+      <c r="D121" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
     </row>
     <row r="122" s="4" customFormat="1" spans="1:8">
-      <c r="A122" s="7"/>
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
       <c r="B122" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="15" t="s">
+      <c r="D122" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E122" s="8">
@@ -4914,15 +4911,17 @@
       <c r="H122" s="8"/>
     </row>
     <row r="123" s="4" customFormat="1" spans="1:8">
-      <c r="A123" s="7"/>
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
       <c r="B123" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="15" t="s">
-        <v>241</v>
+      <c r="D123" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="E123" s="8">
         <v>9789045678</v>
@@ -4932,15 +4931,17 @@
       <c r="H123" s="8"/>
     </row>
     <row r="124" s="4" customFormat="1" spans="1:8">
-      <c r="A124" s="7"/>
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
       <c r="B124" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D124" s="15" t="s">
-        <v>242</v>
+      <c r="D124" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="E124" s="8">
         <v>21331</v>
@@ -4951,7 +4952,7 @@
     </row>
     <row r="125" s="4" customFormat="1" spans="1:8">
       <c r="A125" s="8">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>47</v>
@@ -4959,8 +4960,8 @@
       <c r="C125" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D125" s="15" t="s">
-        <v>243</v>
+      <c r="D125" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="E125" s="8">
         <v>97989898982</v>
@@ -4971,7 +4972,7 @@
     </row>
     <row r="126" s="4" customFormat="1" spans="1:8">
       <c r="A126" s="7">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>65</v>
@@ -4979,8 +4980,8 @@
       <c r="C126" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D126" s="15" t="s">
-        <v>244</v>
+      <c r="D126" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>146</v>
@@ -4991,7 +4992,7 @@
     </row>
     <row r="127" s="4" customFormat="1" spans="1:8">
       <c r="A127" s="8">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>65</v>
@@ -4999,11 +5000,11 @@
       <c r="C127" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D127" s="15" t="s">
-        <v>245</v>
+      <c r="D127" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
@@ -5011,7 +5012,7 @@
     </row>
     <row r="128" s="4" customFormat="1" spans="1:8">
       <c r="A128" s="7">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>65</v>
@@ -5019,8 +5020,8 @@
       <c r="C128" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D128" s="15" t="s">
-        <v>247</v>
+      <c r="D128" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>146</v>
@@ -5031,7 +5032,7 @@
     </row>
     <row r="129" s="4" customFormat="1" spans="1:8">
       <c r="A129" s="8">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>19</v>
@@ -5039,8 +5040,8 @@
       <c r="C129" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="15" t="s">
-        <v>248</v>
+      <c r="D129" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -5049,7 +5050,7 @@
     </row>
     <row r="130" s="4" customFormat="1" spans="1:8">
       <c r="A130" s="7">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>11</v>
@@ -5064,8 +5065,8 @@
       <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="7">
-        <v>114</v>
+      <c r="A131" s="8">
+        <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>19</v>
@@ -5074,7 +5075,7 @@
         <v>20</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
@@ -5082,8 +5083,8 @@
       <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="8">
-        <v>115</v>
+      <c r="A132" s="7">
+        <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>19</v>
@@ -5104,8 +5105,8 @@
       <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="7">
-        <v>116</v>
+      <c r="A133" s="8">
+        <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>11</v>
@@ -5124,8 +5125,8 @@
       <c r="H133" s="7"/>
     </row>
     <row r="134" s="4" customFormat="1" spans="1:8">
-      <c r="A134" s="8">
-        <v>117</v>
+      <c r="A134" s="7">
+        <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>19</v>
@@ -5142,8 +5143,8 @@
       <c r="H134" s="8"/>
     </row>
     <row r="135" s="4" customFormat="1" spans="1:8">
-      <c r="A135" s="7">
-        <v>118</v>
+      <c r="A135" s="8">
+        <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>11</v>
@@ -5158,8 +5159,8 @@
       <c r="H135" s="7"/>
     </row>
     <row r="136" s="4" customFormat="1" spans="1:8">
-      <c r="A136" s="8">
-        <v>119</v>
+      <c r="A136" s="7">
+        <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>19</v>
@@ -5176,8 +5177,8 @@
       <c r="H136" s="8"/>
     </row>
     <row r="137" s="4" customFormat="1" spans="1:8">
-      <c r="A137" s="7">
-        <v>120</v>
+      <c r="A137" s="8">
+        <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>11</v>
@@ -5192,8 +5193,8 @@
       <c r="H137" s="7"/>
     </row>
     <row r="138" s="4" customFormat="1" spans="1:8">
-      <c r="A138" s="8">
-        <v>121</v>
+      <c r="A138" s="7">
+        <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>19</v>
@@ -5214,8 +5215,8 @@
       <c r="H138" s="8"/>
     </row>
     <row r="139" s="4" customFormat="1" spans="1:8">
-      <c r="A139" s="7">
-        <v>122</v>
+      <c r="A139" s="8">
+        <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>11</v>
@@ -5230,18 +5231,14 @@
       <c r="H139" s="7"/>
     </row>
     <row r="140" s="4" customFormat="1" spans="1:8">
-      <c r="A140" s="8">
-        <v>123</v>
+      <c r="A140" s="7">
+        <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="8" t="s">
         <v>154</v>
       </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8" t="s">
         <v>155</v>
@@ -5249,11 +5246,13 @@
       <c r="G140" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H140" s="8"/>
+      <c r="H140" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="141" s="4" customFormat="1" spans="1:8">
-      <c r="A141" s="7">
-        <v>124</v>
+      <c r="A141" s="8">
+        <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>11</v>
@@ -5268,8 +5267,8 @@
       <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="8">
-        <v>125</v>
+      <c r="A142" s="7">
+        <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>47</v>
@@ -5278,22 +5277,22 @@
         <v>20</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="7">
-        <v>126</v>
+      <c r="A143" s="8">
+        <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>11</v>
@@ -5308,8 +5307,8 @@
       <c r="H143" s="7"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="8">
-        <v>127</v>
+      <c r="A144" s="7">
+        <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>161</v>
@@ -5318,16 +5317,16 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="7">
-        <v>128</v>
+      <c r="A145" s="8">
+        <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>19</v>
@@ -5336,20 +5335,20 @@
         <v>20</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H145" s="7"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="8">
-        <v>129</v>
+      <c r="A146" s="7">
+        <v>145</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>19</v>
@@ -5362,16 +5361,16 @@
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H146" s="8"/>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="7">
-        <v>130</v>
+      <c r="A147" s="8">
+        <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>47</v>
@@ -5380,22 +5379,22 @@
         <v>20</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H147" s="7"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="8">
-        <v>131</v>
+      <c r="A148" s="7">
+        <v>147</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>161</v>
@@ -5404,16 +5403,16 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H148" s="8"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="7">
-        <v>132</v>
+      <c r="A149" s="8">
+        <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>47</v>
@@ -5422,22 +5421,22 @@
         <v>15</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H149" s="7"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="8">
-        <v>133</v>
+      <c r="A150" s="7">
+        <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>47</v>
@@ -5446,22 +5445,22 @@
         <v>15</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H150" s="8"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="7">
-        <v>134</v>
+      <c r="A151" s="8">
+        <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>19</v>
@@ -5482,8 +5481,8 @@
       <c r="H151" s="7"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="8">
-        <v>135</v>
+      <c r="A152" s="7">
+        <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>11</v>
@@ -5502,8 +5501,8 @@
       <c r="H152" s="8"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="7">
-        <v>136</v>
+      <c r="A153" s="8">
+        <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>19</v>
@@ -5512,20 +5511,20 @@
         <v>20</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H153" s="8"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="8">
-        <v>137</v>
+      <c r="A154" s="7">
+        <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>11</v>
@@ -5540,8 +5539,8 @@
       <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="7">
-        <v>138</v>
+      <c r="A155" s="8">
+        <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>19</v>
@@ -5550,7 +5549,7 @@
         <v>20</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
@@ -5558,8 +5557,8 @@
       <c r="H155" s="8"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="8">
-        <v>139</v>
+      <c r="A156" s="7">
+        <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>11</v>
@@ -5574,8 +5573,8 @@
       <c r="H156" s="7"/>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="7">
-        <v>140</v>
+      <c r="A157" s="8">
+        <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>19</v>
@@ -5584,20 +5583,20 @@
         <v>20</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H157" s="8"/>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="8">
-        <v>141</v>
+      <c r="A158" s="7">
+        <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>11</v>
@@ -5608,16 +5607,16 @@
         <v>3</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H158" s="7"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="7">
-        <v>142</v>
+      <c r="A159" s="8">
+        <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>19</v>
@@ -5626,20 +5625,20 @@
         <v>20</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H159" s="8"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="8">
-        <v>143</v>
+      <c r="A160" s="7">
+        <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>11</v>
@@ -5650,16 +5649,16 @@
         <v>3</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="7">
-        <v>144</v>
+      <c r="A161" s="8">
+        <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>19</v>
@@ -5668,20 +5667,20 @@
         <v>20</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H161" s="8"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="8">
-        <v>145</v>
+      <c r="A162" s="7">
+        <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>19</v>
@@ -5690,20 +5689,20 @@
         <v>20</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="7">
-        <v>146</v>
+      <c r="A163" s="8">
+        <v>162</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>11</v>
@@ -5718,8 +5717,8 @@
       <c r="H163" s="8"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="8">
-        <v>147</v>
+      <c r="A164" s="7">
+        <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>65</v>
@@ -5728,22 +5727,22 @@
         <v>15</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="7">
-        <v>148</v>
+      <c r="A165" s="8">
+        <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>65</v>
@@ -5752,22 +5751,22 @@
         <v>15</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H165" s="8"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="8">
-        <v>149</v>
+      <c r="A166" s="7">
+        <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>47</v>
@@ -5776,7 +5775,7 @@
         <v>15</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E166" s="7">
         <v>9889656446</v>
@@ -5790,8 +5789,8 @@
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="7">
-        <v>150</v>
+      <c r="A167" s="8">
+        <v>166</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>19</v>
@@ -5800,20 +5799,20 @@
         <v>15</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H167" s="8"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="8">
-        <v>151</v>
+      <c r="A168" s="7">
+        <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>11</v>
@@ -5832,8 +5831,8 @@
       <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="7">
-        <v>152</v>
+      <c r="A169" s="8">
+        <v>168</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>19</v>
@@ -5842,20 +5841,20 @@
         <v>20</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H169" s="8"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="8">
-        <v>153</v>
+      <c r="A170" s="7">
+        <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>11</v>
@@ -5870,8 +5869,8 @@
       <c r="H170" s="7"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="7">
-        <v>154</v>
+      <c r="A171" s="8">
+        <v>170</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>19</v>
@@ -5880,20 +5879,20 @@
         <v>20</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E171" s="8"/>
       <c r="F171" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H171" s="8"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="8">
-        <v>155</v>
+      <c r="A172" s="7">
+        <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>11</v>
@@ -5910,13 +5909,13 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C96 C97:C98 C108:C109 C110:C112 C114:C124 C125:C130 C134:C137 C138:C141 C172:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C95 C96 C140 C141 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C94 C97:C98 C108:C109 C110:C112 C114:C124 C125:C130 C134:C137 C138:C139 C172:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113 B1:B106 B107:B109 B110:B112 B114:B124 B125:B130 B131:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95 B140 B1:B94 B96:B139 B141:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
@@ -5935,10 +5934,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5953,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5961,20 +5960,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5985,20 +5984,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6006,47 +6005,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6056,12 +6055,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6071,55 +6070,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6129,152 +6128,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6284,204 +6283,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6496,12 +6495,17 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>404</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407">
   <si>
     <t>Step No</t>
   </si>
@@ -695,22 +695,25 @@
     <t>CLICK_HERE_PROVIDER</t>
   </si>
   <si>
-    <t>PATIENT_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>PATIENT_LAST_NAME</t>
+    <t>ADD_PROV_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_LAST_NAME</t>
   </si>
   <si>
     <t>TenDigitPhone</t>
   </si>
   <si>
-    <t>NPI_PROVIDER_CREATE</t>
+    <t>ADD_PROV_NPI</t>
   </si>
   <si>
     <t>Enter NPI</t>
   </si>
   <si>
-    <t>TAX_ID_PROVIDER</t>
+    <t>ADD_PROV_FACILITY_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_TAXID</t>
   </si>
   <si>
     <t>Enter TaxID</t>
@@ -1252,10 +1255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1287,9 +1290,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,14 +1322,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1321,23 +1338,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,15 +1359,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1379,46 +1420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1452,7 +1455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,7 +1473,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,73 +1563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,55 +1581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,7 +1599,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,30 +1688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1728,31 +1707,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1782,16 +1737,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1803,130 +1806,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2313,8 +2316,8 @@
   <sheetPr/>
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4626,7 +4629,7 @@
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -4640,7 +4643,7 @@
         <v>65</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>222</v>
@@ -4662,7 +4665,7 @@
         <v>65</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>223</v>
@@ -4684,7 +4687,7 @@
         <v>224</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>225</v>
@@ -4705,11 +4708,11 @@
       <c r="B113" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="7" t="s">
-        <v>15</v>
+      <c r="C113" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
@@ -4728,14 +4731,14 @@
         <v>224</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>194</v>
@@ -4753,11 +4756,11 @@
         <v>20</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>35</v>
@@ -4775,11 +4778,11 @@
         <v>20</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>35</v>
@@ -4797,11 +4800,11 @@
         <v>20</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>35</v>
@@ -4819,16 +4822,16 @@
         <v>20</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>94</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H118" s="8"/>
     </row>
@@ -4843,7 +4846,7 @@
         <v>15</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
@@ -4861,7 +4864,7 @@
         <v>20</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>213</v>
@@ -4881,10 +4884,10 @@
         <v>15</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
@@ -4921,7 +4924,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E123" s="8">
         <v>9789045678</v>
@@ -4941,7 +4944,7 @@
         <v>15</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E124" s="8">
         <v>21331</v>
@@ -4961,7 +4964,7 @@
         <v>15</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E125" s="8">
         <v>97989898982</v>
@@ -4981,7 +4984,7 @@
         <v>15</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>146</v>
@@ -5001,10 +5004,10 @@
         <v>15</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
@@ -5021,7 +5024,7 @@
         <v>15</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>146</v>
@@ -5041,7 +5044,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -5075,7 +5078,7 @@
         <v>20</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
@@ -5277,16 +5280,16 @@
         <v>20</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H142" s="8"/>
     </row>
@@ -5317,10 +5320,10 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H144" s="8"/>
     </row>
@@ -5335,14 +5338,14 @@
         <v>20</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -5361,10 +5364,10 @@
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H146" s="8"/>
     </row>
@@ -5379,16 +5382,16 @@
         <v>20</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -5403,10 +5406,10 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H148" s="8"/>
     </row>
@@ -5421,16 +5424,16 @@
         <v>15</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -5445,16 +5448,16 @@
         <v>15</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H150" s="8"/>
     </row>
@@ -5511,14 +5514,14 @@
         <v>20</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H153" s="8"/>
     </row>
@@ -5549,7 +5552,7 @@
         <v>20</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
@@ -5583,14 +5586,14 @@
         <v>20</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H157" s="8"/>
     </row>
@@ -5607,10 +5610,10 @@
         <v>3</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -5625,14 +5628,14 @@
         <v>20</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H159" s="8"/>
     </row>
@@ -5649,10 +5652,10 @@
         <v>3</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -5667,14 +5670,14 @@
         <v>20</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E161" s="8"/>
       <c r="F161" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H161" s="8"/>
     </row>
@@ -5689,14 +5692,14 @@
         <v>20</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -5727,16 +5730,16 @@
         <v>15</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H164" s="7"/>
     </row>
@@ -5751,16 +5754,16 @@
         <v>15</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H165" s="8"/>
     </row>
@@ -5775,7 +5778,7 @@
         <v>15</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E166" s="7">
         <v>9889656446</v>
@@ -5799,14 +5802,14 @@
         <v>15</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H167" s="8"/>
     </row>
@@ -5841,14 +5844,14 @@
         <v>20</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H169" s="8"/>
     </row>
@@ -5879,14 +5882,14 @@
         <v>20</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E171" s="8"/>
       <c r="F171" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H171" s="8"/>
     </row>
@@ -5909,7 +5912,7 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C95 C96 C140 C141 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C94 C97:C98 C108:C109 C110:C112 C114:C124 C125:C130 C134:C137 C138:C139 C172:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C95 C96 C110 C140 C141 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C94 C97:C98 C108:C109 C111:C114 C115:C124 C125:C130 C134:C137 C138:C139 C172:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
@@ -5952,7 +5955,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5960,20 +5963,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5984,20 +5987,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6005,47 +6008,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6055,12 +6058,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6070,55 +6073,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6128,152 +6131,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6283,204 +6286,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6495,12 +6498,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="14265"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1256,9 +1256,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1290,9 +1290,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1305,6 +1304,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1328,6 +1328,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1336,9 +1343,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1352,8 +1366,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,39 +1411,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,24 +1426,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1455,7 +1455,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,7 +1563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,73 +1587,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,37 +1617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,43 +1629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,6 +1688,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1713,6 +1724,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1723,41 +1749,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,16 +1776,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1806,130 +1806,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2317,7 +2317,7 @@
   <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410">
   <si>
     <t>Step No</t>
   </si>
@@ -746,13 +746,22 @@
     <t>selected</t>
   </si>
   <si>
+    <t>ADD_PROV_ADDRESS</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Type address</t>
+  </si>
+  <si>
     <t>PROV_SUITE_NO</t>
   </si>
   <si>
     <t>PATIENT_STATE</t>
   </si>
   <si>
-    <t>PROV_CITY_CREATE</t>
+    <t>ADD_PROV_CITY</t>
   </si>
   <si>
     <t>Chennai</t>
@@ -1255,10 +1264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1291,13 +1300,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1306,7 +1308,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,6 +1317,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,30 +1353,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1374,10 +1375,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1390,29 +1400,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1427,10 +1422,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1455,13 +1464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,43 +1482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,7 +1500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,7 +1512,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,73 +1614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,7 +1638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,13 +1697,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1714,15 +1727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1734,6 +1738,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,17 +1766,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1779,22 +1786,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1806,134 +1815,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1946,6 +1955,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2314,10 +2324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4843,14 +4853,20 @@
         <v>65</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
+      <c r="E119" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="H119" s="8"/>
     </row>
     <row r="120" s="4" customFormat="1" spans="1:8">
@@ -4858,17 +4874,15 @@
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>213</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
@@ -4878,16 +4892,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>241</v>
+        <v>20</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
@@ -4901,13 +4915,13 @@
         <v>47</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E122" s="8">
-        <v>10001</v>
+        <v>20</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
@@ -4924,10 +4938,10 @@
         <v>15</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="E123" s="8">
-        <v>9789045678</v>
+        <v>10001</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
@@ -4944,10 +4958,10 @@
         <v>15</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E124" s="8">
-        <v>21331</v>
+        <v>9789045678</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
@@ -4964,10 +4978,10 @@
         <v>15</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E125" s="8">
-        <v>97989898982</v>
+        <v>21331</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
@@ -4978,16 +4992,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>146</v>
+        <v>248</v>
+      </c>
+      <c r="E126" s="8">
+        <v>97989898982</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
@@ -5004,10 +5018,10 @@
         <v>15</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
@@ -5024,10 +5038,10 @@
         <v>15</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
@@ -5038,15 +5052,17 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E129" s="8"/>
+        <v>252</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -5056,472 +5072,468 @@
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8">
-        <v>2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" s="4" customFormat="1" spans="1:8">
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
+      <c r="B131" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8">
+        <v>2</v>
+      </c>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H132" s="8"/>
+      <c r="C132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="8">
         <v>132</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7">
-        <v>4</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H133" s="7"/>
-    </row>
-    <row r="134" s="4" customFormat="1" spans="1:8">
+      <c r="B133" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H133" s="8"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
+      <c r="B134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7">
+        <v>4</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="7"/>
     </row>
     <row r="135" s="4" customFormat="1" spans="1:8">
       <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7">
-        <v>4</v>
-      </c>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
+      <c r="B135" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" s="4" customFormat="1" spans="1:8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
+      <c r="B136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7">
+        <v>4</v>
+      </c>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
     </row>
     <row r="137" s="4" customFormat="1" spans="1:8">
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7">
-        <v>5</v>
-      </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
+      <c r="B137" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" s="4" customFormat="1" spans="1:8">
       <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H138" s="8"/>
+      <c r="B138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7">
+        <v>5</v>
+      </c>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
     </row>
     <row r="139" s="4" customFormat="1" spans="1:8">
       <c r="A139" s="8">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7">
-        <v>3</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
+      <c r="B139" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H139" s="8"/>
     </row>
     <row r="140" s="4" customFormat="1" spans="1:8">
       <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H140" s="8">
-        <v>6</v>
-      </c>
+      <c r="B140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7">
+        <v>3</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
     </row>
     <row r="141" s="4" customFormat="1" spans="1:8">
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7">
-        <v>4</v>
-      </c>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="B141" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H141" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" s="4" customFormat="1" spans="1:8">
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H142" s="8"/>
+      <c r="B142" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7">
+        <v>4</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7">
-        <v>2</v>
-      </c>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
+      <c r="B143" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H144" s="8"/>
+      <c r="B144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7">
+        <v>2</v>
+      </c>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="8">
         <v>144</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7" t="s">
+      <c r="B145" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="G145" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="H145" s="7"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H146" s="8"/>
+      <c r="C146" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E147" s="7" t="s">
+      <c r="B147" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="G147" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="G147" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H147" s="7"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8" t="s">
+      <c r="B148" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E148" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G148" s="8" t="s">
+      <c r="F148" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H148" s="8"/>
+      <c r="G148" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="8">
         <v>148</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E149" s="7" t="s">
+      <c r="B149" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="G149" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G149" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H149" s="7"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E150" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="F150" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="G150" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G150" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H150" s="8"/>
+      <c r="H150" s="7"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="8">
         <v>150</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="7" t="s">
+      <c r="B151" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D151" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H151" s="7"/>
+      <c r="D151" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H151" s="8"/>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8">
-        <v>4</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" s="8"/>
+      <c r="B152" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H152" s="7"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="8">
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E153" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8">
+        <v>4</v>
+      </c>
       <c r="F153" s="8" t="s">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>276</v>
+        <v>13</v>
       </c>
       <c r="H153" s="8"/>
     </row>
@@ -5529,399 +5541,421 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7">
-        <v>1</v>
-      </c>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
+      <c r="B154" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="8">
         <v>154</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
+      <c r="B155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7">
+        <v>1</v>
+      </c>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7">
-        <v>1</v>
-      </c>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
+      <c r="B156" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="8">
         <v>156</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H157" s="8"/>
+      <c r="B157" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7">
+        <v>1</v>
+      </c>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7">
-        <v>3</v>
-      </c>
-      <c r="F158" s="7" t="s">
+      <c r="B158" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="E158" s="8"/>
+      <c r="F158" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="H158" s="7"/>
+      <c r="G158" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H158" s="8"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="8">
         <v>158</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G159" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H159" s="8"/>
+      <c r="B159" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7">
+        <v>3</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H159" s="7"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7">
-        <v>3</v>
-      </c>
-      <c r="F160" s="7" t="s">
+      <c r="B160" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="E160" s="8"/>
+      <c r="F160" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="H160" s="7"/>
+      <c r="G160" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H160" s="8"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="8">
         <v>160</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8" t="s">
+      <c r="B161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7">
+        <v>3</v>
+      </c>
+      <c r="F161" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G161" s="8" t="s">
+      <c r="G161" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H161" s="8"/>
+      <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D162" s="7" t="s">
+      <c r="C162" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7" t="s">
+      <c r="E162" s="8"/>
+      <c r="F162" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G162" s="7" t="s">
+      <c r="G162" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="H162" s="7"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="8">
         <v>162</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8">
-        <v>2</v>
-      </c>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
+      <c r="B163" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H164" s="7"/>
+      <c r="B164" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8">
+        <v>2</v>
+      </c>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="8">
         <v>164</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E165" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E165" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F165" s="8" t="s">
+      <c r="F165" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G165" s="8" t="s">
+      <c r="G165" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H165" s="8"/>
+      <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C166" s="7" t="s">
+      <c r="B166" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C166" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D166" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E166" s="7">
-        <v>9889656446</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H166" s="7"/>
+      <c r="D166" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H166" s="8"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="8">
         <v>166</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="8" t="s">
+      <c r="B167" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D167" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="H167" s="8"/>
+      <c r="D167" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E167" s="7">
+        <v>9889656446</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7">
-        <v>4</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H168" s="7"/>
+      <c r="B168" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H168" s="8"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="8">
         <v>168</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G169" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="H169" s="8"/>
+      <c r="B169" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7">
+        <v>4</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7">
-        <v>5</v>
-      </c>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
+      <c r="B170" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H170" s="8"/>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="8">
         <v>170</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G171" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H171" s="8"/>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="B171" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7">
+        <v>5</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H172" s="8"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="8">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E173" s="4">
         <v>5</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F173" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G172" s="4" t="s">
+      <c r="G173" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C95 C96 C110 C140 C141 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C94 C97:C98 C108:C109 C111:C114 C115:C124 C125:C130 C134:C137 C138:C139 C172:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C95 C96 C110 C119 C141 C142 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C94 C97:C98 C108:C109 C111:C114 C115:C118 C120:C125 C126:C131 C135:C138 C139:C140 C173:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95 B140 B1:B94 B96:B139 B141:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95 B119 B141 B1:B94 B96:B118 B120:B140 B142:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C133">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:C71">
@@ -5955,7 +5989,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5963,20 +5997,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5987,20 +6021,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -6008,47 +6042,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6058,12 +6092,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6073,55 +6107,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6131,152 +6165,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6286,204 +6320,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6498,12 +6532,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -1264,10 +1264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1299,10 +1299,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1323,7 +1340,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,24 +1353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,14 +1363,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,31 +1384,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1430,14 +1437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,31 +1464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,13 +1476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,7 +1506,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,55 +1590,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,49 +1632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,6 +1698,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1728,30 +1761,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1768,9 +1777,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1783,21 +1794,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,134 +1815,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1955,7 +1955,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2324,10 +2323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A159" sqref="$A159:$XFD160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4855,7 +4854,7 @@
       <c r="C119" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="12" t="s">
         <v>239</v>
       </c>
       <c r="E119" s="8" t="s">
@@ -4917,7 +4916,7 @@
       <c r="C122" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="13" t="s">
+      <c r="D122" s="12" t="s">
         <v>244</v>
       </c>
       <c r="E122" s="8" t="s">
@@ -5633,7 +5632,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>11</v>
@@ -5653,7 +5652,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="7">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>19</v>
@@ -5662,194 +5661,194 @@
         <v>20</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E160" s="8"/>
       <c r="F160" s="8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H160" s="8"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7">
-        <v>3</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E161" s="7"/>
       <c r="F161" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G162" s="8" t="s">
-        <v>288</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8">
+        <v>2</v>
+      </c>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
       <c r="H162" s="8"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E163" s="7"/>
+        <v>292</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="F163" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8">
-        <v>2</v>
-      </c>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="H164" s="8"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>293</v>
+        <v>246</v>
+      </c>
+      <c r="E165" s="7">
+        <v>9889656446</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>251</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E166" s="8"/>
       <c r="F166" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H166" s="8"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>246</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
       <c r="E167" s="7">
-        <v>9889656446</v>
+        <v>4</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E168" s="8"/>
       <c r="F168" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H168" s="8"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>11</v>
@@ -5857,19 +5856,15 @@
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7">
-        <v>4</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>91</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
       <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>19</v>
@@ -5878,81 +5873,43 @@
         <v>20</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E170" s="8"/>
       <c r="F170" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:7">
       <c r="A171" s="8">
-        <v>170</v>
-      </c>
-      <c r="B171" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7">
+      <c r="E171" s="4">
         <v>5</v>
       </c>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="7">
-        <v>171</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G172" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="H172" s="8"/>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="8">
-        <v>172</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" s="4">
-        <v>5</v>
-      </c>
-      <c r="F173" s="4" t="s">
+      <c r="F171" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G173" s="4" t="s">
+      <c r="G171" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C95 C96 C110 C119 C141 C142 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C94 C97:C98 C108:C109 C111:C114 C115:C118 C120:C125 C126:C131 C135:C138 C139:C140 C173:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C95 C96 C110 C119 C141 C142 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C94 C97:C98 C108:C109 C111:C114 C115:C118 C120:C125 C126:C131 C135:C138 C139:C140 C171:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95 B119 B141 B1:B94 B96:B118 B120:B140 B142:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95 B119 B141 B1:B94 B96:B118 B120:B140 B142:B158 B159:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C133">

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407">
   <si>
     <t>Step No</t>
   </si>
@@ -324,15 +324,6 @@
   </si>
   <si>
     <t>add 1 entered</t>
-  </si>
-  <si>
-    <t>CONTACT_ADDRESS_LINE2</t>
-  </si>
-  <si>
-    <t>Enter Add2</t>
-  </si>
-  <si>
-    <t>add 2 entered</t>
   </si>
   <si>
     <t>CONTACT_STATE</t>
@@ -1264,9 +1255,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -1299,6 +1290,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1315,25 +1366,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,7 +1397,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1363,81 +1429,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,7 +1455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,85 +1485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,19 +1503,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,13 +1551,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,19 +1599,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,50 +1688,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1760,28 +1729,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1794,16 +1761,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,130 +1806,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2323,10 +2314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A159" sqref="$A159:$XFD160"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3097,7 +3088,7 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -3117,7 +3108,7 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -3141,7 +3132,7 @@
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -3166,1263 +3157,1261 @@
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="B39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="G39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="B40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="G40" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="7">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="F42" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="7">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="E44" s="8">
+        <v>9876543210</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="8">
-        <v>9876543210</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
+      <c r="B45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="B46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7">
+        <v>4</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="7">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7">
-        <v>4</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="8">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="G49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="7">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="7"/>
+      <c r="G50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="B51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="8"/>
+      <c r="G51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="B52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="F52" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H52" s="7"/>
+      <c r="G52" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G53" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="7">
-        <v>53</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="8">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="E55" s="7">
+        <v>10001</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="7">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="7">
-        <v>10001</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="E56" s="8">
+        <v>9789123456</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="8">
-        <v>9789123456</v>
-      </c>
-      <c r="F57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="G57" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H58" s="7"/>
+      <c r="D58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7">
+        <v>4</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="7">
-        <v>59</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="D60" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7">
         <v>4</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="8">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8" t="s">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="7">
-        <v>61</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7">
-        <v>4</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="C62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="B63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7">
+        <v>5</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7">
-        <v>5</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="B64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="B65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7">
+        <v>3</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G66" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="7">
-        <v>65</v>
-      </c>
-      <c r="B66" s="7" t="s">
+      <c r="H66" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7">
-        <v>3</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="8">
-        <v>66</v>
-      </c>
-      <c r="B67" s="8" t="s">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7">
+        <v>4</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
+      <c r="E68" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="F68" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H67" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="7">
-        <v>67</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7">
-        <v>4</v>
-      </c>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H69" s="7"/>
+      <c r="B69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8">
+        <v>2</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8">
-        <v>2</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="B70" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7" t="s">
+      <c r="E71" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="F71" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H71" s="7"/>
+      <c r="G71" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="7">
+      <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="8">
-        <v>72</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="7">
-        <v>73</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G74" s="8" t="s">
+      <c r="F74" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H74" s="8"/>
+      <c r="G74" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E75" s="7" t="s">
+      <c r="D75" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="E75" s="8">
+        <v>1235647899</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="H75" s="7"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="B76" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="8">
-        <v>1235647899</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H76" s="8"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="7" t="s">
+      <c r="C77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="7">
+      <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" s="7">
+        <v>97890456789</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H78" s="8"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="8">
-        <v>78</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E79" s="7">
-        <v>97890456789</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="8" t="s">
+      <c r="C80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
+      <c r="E80" s="7">
+        <v>1230</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="7" t="s">
+      <c r="C81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E81" s="7">
-        <v>1230</v>
-      </c>
-      <c r="F81" s="7" t="s">
+      <c r="E81" s="8">
+        <v>1550</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H81" s="7"/>
+      <c r="G81" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="8" t="s">
+      <c r="B82" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E82" s="8">
-        <v>1550</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H82" s="8"/>
+      <c r="G82" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="7" t="s">
+      <c r="C83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H83" s="7"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="7">
+      <c r="A84" s="8">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="8" t="s">
+      <c r="C84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="8">
-        <v>84</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="E85" s="8"/>
+      <c r="F85" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="7">
-        <v>85</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H86" s="8"/>
+      <c r="C86" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="B87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8">
+        <v>4</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" s="4" customFormat="1" spans="1:8">
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8">
-        <v>4</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="8"/>
+      <c r="B88" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" s="4" customFormat="1" spans="1:8">
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8">
+        <v>4</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="1:8">
+      <c r="A90" s="8">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="1:8">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8">
+        <v>5</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" s="4" customFormat="1" spans="1:8">
+      <c r="A92" s="8">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D92" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" s="4" customFormat="1" spans="1:8">
-      <c r="A90" s="7">
-        <v>89</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8">
-        <v>4</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-    </row>
-    <row r="91" s="4" customFormat="1" spans="1:8">
-      <c r="A91" s="8">
-        <v>90</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" s="4" customFormat="1" spans="1:8">
-      <c r="A92" s="7">
-        <v>91</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8">
-        <v>5</v>
-      </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" s="4" customFormat="1" spans="1:8">
       <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H93" s="7"/>
+      <c r="B93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8">
+        <v>3</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" s="4" customFormat="1" spans="1:8">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
-      <c r="E94" s="8">
-        <v>3</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H94" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="95" s="4" customFormat="1" spans="1:8">
       <c r="A95" s="8">
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H95" s="8">
-        <v>6</v>
-      </c>
+      <c r="E95" s="8">
+        <v>4</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" s="4" customFormat="1" spans="1:8">
-      <c r="A96" s="7">
+      <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" s="4" customFormat="1" spans="1:8">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8">
         <v>4</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" s="4" customFormat="1" spans="1:8">
-      <c r="A97" s="8">
-        <v>96</v>
-      </c>
-      <c r="B97" s="8" t="s">
+      <c r="F97" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" s="4" customFormat="1" spans="1:8">
+      <c r="A98" s="8">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="9" t="s">
+      <c r="C98" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H97" s="8"/>
-    </row>
-    <row r="98" s="4" customFormat="1" spans="1:8">
-      <c r="A98" s="7">
-        <v>97</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8">
-        <v>4</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
       <c r="G98" s="8" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="H98" s="8"/>
     </row>
@@ -4430,36 +4419,38 @@
       <c r="A99" s="8">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8" t="s">
-        <v>201</v>
-      </c>
+      <c r="B99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7">
+        <v>3</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
       <c r="H99" s="8"/>
     </row>
     <row r="100" s="4" customFormat="1" spans="1:8">
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7">
-        <v>3</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
+      <c r="B100" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="H100" s="8"/>
     </row>
     <row r="101" s="4" customFormat="1" spans="1:8">
@@ -4467,65 +4458,65 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="7">
+        <v>2</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:8">
+      <c r="A102" s="8">
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7" t="s">
+      <c r="F102" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H101" s="8"/>
-    </row>
-    <row r="102" s="4" customFormat="1" spans="1:8">
-      <c r="A102" s="7">
-        <v>101</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="7">
-        <v>2</v>
-      </c>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
+      <c r="G102" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="H102" s="8"/>
     </row>
     <row r="103" s="4" customFormat="1" spans="1:8">
-      <c r="A103" s="8">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="10" t="s">
+      <c r="B103" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>105</v>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H103" s="8"/>
     </row>
     <row r="104" s="4" customFormat="1" spans="1:8">
-      <c r="A104" s="7">
+      <c r="A104" s="8">
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -4534,15 +4525,15 @@
       <c r="C104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>215</v>
+      <c r="D104" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="E104" s="7"/>
       <c r="F104" s="7" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="H104" s="8"/>
     </row>
@@ -4550,21 +4541,21 @@
       <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" s="7" t="s">
+      <c r="B105" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D105" s="12" t="s">
+      <c r="D105" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7" t="s">
+      <c r="G105" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H105" s="8"/>
     </row>
@@ -4572,21 +4563,19 @@
       <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>220</v>
+      <c r="B106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7">
+        <v>4</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H106" s="8"/>
     </row>
@@ -4594,58 +4583,60 @@
       <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" s="4" customFormat="1" spans="1:8">
+      <c r="A108" s="8">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7">
-        <v>4</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="8"/>
-    </row>
-    <row r="108" s="4" customFormat="1" spans="1:8">
-      <c r="A108" s="7">
-        <v>107</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8">
+        <v>5</v>
+      </c>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
     </row>
     <row r="109" s="4" customFormat="1" spans="1:8">
-      <c r="A109" s="8">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8">
-        <v>5</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="H109" s="8"/>
     </row>
     <row r="110" s="4" customFormat="1" spans="1:8">
-      <c r="A110" s="7">
+      <c r="A110" s="8">
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -4655,14 +4646,14 @@
         <v>20</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H110" s="8"/>
     </row>
@@ -4671,20 +4662,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="8" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="H111" s="8"/>
     </row>
@@ -4692,21 +4683,21 @@
       <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H112" s="8"/>
     </row>
@@ -4714,48 +4705,48 @@
       <c r="A113" s="8">
         <v>112</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>65</v>
+      <c r="B113" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H113" s="8"/>
     </row>
     <row r="114" s="4" customFormat="1" spans="1:8">
-      <c r="A114" s="7">
+      <c r="A114" s="8">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="H114" s="8"/>
     </row>
     <row r="115" s="4" customFormat="1" spans="1:8">
-      <c r="A115" s="8">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
@@ -4765,11 +4756,11 @@
         <v>20</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>35</v>
@@ -4777,7 +4768,7 @@
       <c r="H115" s="8"/>
     </row>
     <row r="116" s="4" customFormat="1" spans="1:8">
-      <c r="A116" s="7">
+      <c r="A116" s="8">
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
@@ -4787,11 +4778,11 @@
         <v>20</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>35</v>
@@ -4803,20 +4794,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D117" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H117" s="8"/>
     </row>
@@ -4825,22 +4818,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="12" t="s">
         <v>236</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>237</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="H118" s="8"/>
     </row>
@@ -4852,75 +4845,71 @@
         <v>65</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" s="4" customFormat="1" spans="1:8">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="F119" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H119" s="8"/>
-    </row>
-    <row r="120" s="4" customFormat="1" spans="1:8">
-      <c r="A120" s="7">
-        <v>119</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E120" s="8"/>
+      <c r="E120" s="8" t="s">
+        <v>210</v>
+      </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
     </row>
     <row r="121" s="4" customFormat="1" spans="1:8">
-      <c r="A121" s="8">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
     </row>
     <row r="122" s="4" customFormat="1" spans="1:8">
-      <c r="A122" s="7">
+      <c r="A122" s="8">
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>245</v>
+        <v>59</v>
+      </c>
+      <c r="E122" s="8">
+        <v>10001</v>
       </c>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
@@ -4937,10 +4926,10 @@
         <v>15</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="E123" s="8">
-        <v>10001</v>
+        <v>9789045678</v>
       </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
@@ -4957,10 +4946,10 @@
         <v>15</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E124" s="8">
-        <v>9789045678</v>
+        <v>21331</v>
       </c>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
@@ -4977,37 +4966,37 @@
         <v>15</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E125" s="8">
-        <v>21331</v>
+        <v>97989898982</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
     </row>
     <row r="126" s="4" customFormat="1" spans="1:8">
-      <c r="A126" s="7">
+      <c r="A126" s="8">
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E126" s="8">
-        <v>97989898982</v>
+        <v>246</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
     </row>
     <row r="127" s="4" customFormat="1" spans="1:8">
-      <c r="A127" s="8">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
@@ -5017,17 +5006,17 @@
         <v>15</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
     </row>
     <row r="128" s="4" customFormat="1" spans="1:8">
-      <c r="A128" s="7">
+      <c r="A128" s="8">
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
@@ -5037,10 +5026,10 @@
         <v>15</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
@@ -5051,17 +5040,15 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>146</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -5071,468 +5058,472 @@
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E130" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8">
+        <v>2</v>
+      </c>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" s="4" customFormat="1" spans="1:8">
+    <row r="131" spans="1:8">
       <c r="A131" s="8">
         <v>130</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="8">
+        <v>131</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H132" s="8"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="7">
+        <v>132</v>
+      </c>
+      <c r="B133" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8">
-        <v>2</v>
-      </c>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="7">
-        <v>131</v>
-      </c>
-      <c r="B132" s="7" t="s">
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7">
+        <v>4</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" s="4" customFormat="1" spans="1:8">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="8">
-        <v>132</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" s="8" t="s">
+      <c r="C134" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H133" s="8"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="7">
-        <v>133</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7">
-        <v>4</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" s="7"/>
+      <c r="D134" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" s="4" customFormat="1" spans="1:8">
       <c r="A135" s="8">
         <v>134</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
+      <c r="B135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7">
+        <v>4</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" s="4" customFormat="1" spans="1:8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7">
-        <v>4</v>
-      </c>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
+      <c r="B136" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
     </row>
     <row r="137" s="4" customFormat="1" spans="1:8">
       <c r="A137" s="8">
         <v>136</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7">
+        <v>5</v>
+      </c>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" s="4" customFormat="1" spans="1:8">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="8" t="s">
+      <c r="C138" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-    </row>
-    <row r="138" s="4" customFormat="1" spans="1:8">
-      <c r="A138" s="7">
-        <v>137</v>
-      </c>
-      <c r="B138" s="7" t="s">
+      <c r="H138" s="8"/>
+    </row>
+    <row r="139" s="4" customFormat="1" spans="1:8">
+      <c r="A139" s="7">
+        <v>138</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7">
-        <v>5</v>
-      </c>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-    </row>
-    <row r="139" s="4" customFormat="1" spans="1:8">
-      <c r="A139" s="8">
-        <v>138</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="8" t="s">
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7">
+        <v>3</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" s="4" customFormat="1" spans="1:8">
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8" t="s">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G139" s="8" t="s">
+      <c r="G140" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H139" s="8"/>
-    </row>
-    <row r="140" s="4" customFormat="1" spans="1:8">
-      <c r="A140" s="7">
-        <v>139</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7">
-        <v>3</v>
-      </c>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
+      <c r="H140" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="141" s="4" customFormat="1" spans="1:8">
       <c r="A141" s="8">
         <v>140</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H141" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142" s="4" customFormat="1" spans="1:8">
+      <c r="B141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7">
+        <v>4</v>
+      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7">
-        <v>4</v>
-      </c>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
+      <c r="B142" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="8">
         <v>142</v>
       </c>
-      <c r="B143" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="8" t="s">
+      <c r="B143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7">
+        <v>2</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="8">
+        <v>143</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E143" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F143" s="8" t="s">
+      <c r="G144" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G143" s="8" t="s">
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="7">
+        <v>144</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="7">
-        <v>143</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7">
-        <v>2</v>
-      </c>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="8">
-        <v>144</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8" t="s">
+      <c r="E145" s="7"/>
+      <c r="F145" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G145" s="8" t="s">
+      <c r="G145" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H145" s="8"/>
+      <c r="H145" s="7"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="7">
+      <c r="A146" s="8">
         <v>145</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C146" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H146" s="7"/>
+      <c r="C146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H146" s="8"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="8">
         <v>146</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8" t="s">
+      <c r="B147" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E147" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G147" s="8" t="s">
+      <c r="F147" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="H147" s="8"/>
+      <c r="G147" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H147" s="7"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E148" s="7" t="s">
+      <c r="B148" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="G148" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G148" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H148" s="7"/>
+      <c r="H148" s="8"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="8">
         <v>148</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8" t="s">
+      <c r="B149" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E149" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G149" s="8" t="s">
+      <c r="F149" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H149" s="8"/>
+      <c r="G149" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H149" s="7"/>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="7">
+      <c r="A150" s="8">
         <v>149</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D150" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E150" s="7" t="s">
+      <c r="D150" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="E150" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G150" s="7" t="s">
+      <c r="F150" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="H150" s="7"/>
+      <c r="G150" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H150" s="8"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="8">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C151" s="8" t="s">
+      <c r="B151" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D151" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G151" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="H151" s="8"/>
+      <c r="D151" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H151" s="7"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="7">
+      <c r="A152" s="8">
         <v>151</v>
       </c>
-      <c r="B152" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H152" s="7"/>
+      <c r="B152" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8">
+        <v>4</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" s="8"/>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="8">
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8">
-        <v>4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>13</v>
+        <v>276</v>
       </c>
       <c r="H153" s="8"/>
     </row>
@@ -5540,382 +5531,360 @@
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="H154" s="8"/>
+      <c r="B154" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7">
+        <v>1</v>
+      </c>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="8">
         <v>154</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="8">
+        <v>155</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7">
         <v>1</v>
       </c>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="7">
-        <v>155</v>
-      </c>
-      <c r="B156" s="8" t="s">
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="7">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="8" t="s">
+      <c r="C157" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G157" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="8">
-        <v>156</v>
-      </c>
-      <c r="B157" s="7" t="s">
+      <c r="H157" s="8"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="8">
+        <v>157</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7">
-        <v>1</v>
-      </c>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="7">
-        <v>157</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" s="8" t="s">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7">
+        <v>3</v>
+      </c>
+      <c r="F158" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8" t="s">
+      <c r="G158" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G158" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H158" s="8"/>
+      <c r="H158" s="7"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="8">
-        <v>160</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7">
-        <v>3</v>
-      </c>
-      <c r="F159" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="G159" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="H159" s="7"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="7">
-        <v>161</v>
-      </c>
-      <c r="B160" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="8" t="s">
+      <c r="C160" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8" t="s">
+      <c r="E160" s="7"/>
+      <c r="F160" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G160" s="8" t="s">
+      <c r="G160" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H160" s="8"/>
+      <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="8">
+        <v>160</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8">
+        <v>2</v>
+      </c>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="8">
+        <v>161</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H161" s="7"/>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="7">
+      <c r="B163" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H163" s="8"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="8">
         <v>163</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8">
-        <v>2</v>
-      </c>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="8">
-        <v>164</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C163" s="7" t="s">
+      <c r="B164" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D163" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H163" s="7"/>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="7">
-        <v>165</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G164" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="H164" s="8"/>
+      <c r="D164" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E164" s="7">
+        <v>9889656446</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="8">
-        <v>166</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C165" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D165" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E165" s="7">
-        <v>9889656446</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H165" s="7"/>
+      <c r="D165" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H165" s="8"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7">
-        <v>167</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="H166" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7">
+        <v>4</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H167" s="8"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="8">
+        <v>167</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7">
+        <v>5</v>
+      </c>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B169" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H169" s="8"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="8">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7">
-        <v>4</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H167" s="7"/>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="7">
-        <v>169</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H168" s="8"/>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="8">
-        <v>170</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7">
+      <c r="E170" s="4">
         <v>5</v>
       </c>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="7">
-        <v>171</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G170" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="H170" s="8"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="8">
-        <v>172</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="4">
-        <v>5</v>
-      </c>
-      <c r="F171" s="4" t="s">
+      <c r="F170" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G171" s="4" t="s">
+      <c r="G170" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C95 C96 C110 C119 C141 C142 C1:C3 C7:C9 C14:C60 C61:C64 C65:C68 C89:C92 C93:C94 C97:C98 C108:C109 C111:C114 C115:C118 C120:C125 C126:C131 C135:C138 C139:C140 C171:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 C94 C95 C109 C118 C140 C141 C1:C3 C7:C9 C14:C38 C39:C59 C60:C63 C64:C67 C88:C91 C92:C93 C96:C97 C107:C108 C110:C113 C114:C117 C119:C124 C125:C130 C134:C137 C138:C139 C170:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95 B119 B141 B1:B94 B96:B118 B120:B140 B142:B158 B159:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94 B118 B140 B1:B38 B39:B93 B95:B117 B119:B139 B141:B157 B158:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C133">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69:C71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68:C70">
       <formula1>DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5946,7 +5915,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5954,20 +5923,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5978,20 +5947,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5999,47 +5968,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6049,12 +6018,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6064,55 +6033,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6122,359 +6091,359 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6489,17 +6458,17 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13230"/>
+    <workbookView windowWidth="27435" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1256,8 +1256,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -1290,6 +1290,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1297,11 +1305,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1313,8 +1328,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1329,22 +1390,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,59 +1413,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1420,15 +1420,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1455,13 +1455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,7 +1473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1485,13 +1485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,13 +1509,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,7 +1569,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,13 +1593,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,85 +1629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,26 +1690,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1729,26 +1712,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1772,6 +1746,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1785,10 +1774,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1806,130 +1806,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2316,8 +2316,8 @@
   <sheetPr/>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A170"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408">
   <si>
     <t>Step No</t>
   </si>
@@ -750,6 +750,9 @@
   </si>
   <si>
     <t>PATIENT_STATE</t>
+  </si>
+  <si>
+    <t>Alaska</t>
   </si>
   <si>
     <t>ADD_PROV_CITY</t>
@@ -1255,12 +1258,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1290,30 +1293,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1328,6 +1331,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1336,8 +1346,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1351,53 +1369,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1406,6 +1394,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,15 +1423,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1455,7 +1464,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,7 +1500,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1479,37 +1590,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,79 +1632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,37 +1644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,6 +1706,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1708,21 +1732,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1741,6 +1750,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1774,27 +1794,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1806,134 +1815,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1947,6 +1956,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2316,8 +2326,8 @@
   <sheetPr/>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4868,8 +4878,8 @@
       <c r="D120" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E120" s="8" t="s">
-        <v>210</v>
+      <c r="E120" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
@@ -4886,10 +4896,10 @@
         <v>20</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
@@ -4926,7 +4936,7 @@
         <v>15</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E123" s="8">
         <v>9789045678</v>
@@ -4946,7 +4956,7 @@
         <v>15</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E124" s="8">
         <v>21331</v>
@@ -4966,7 +4976,7 @@
         <v>15</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E125" s="8">
         <v>97989898982</v>
@@ -4986,7 +4996,7 @@
         <v>15</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>143</v>
@@ -5006,10 +5016,10 @@
         <v>15</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
@@ -5026,7 +5036,7 @@
         <v>15</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>143</v>
@@ -5046,7 +5056,7 @@
         <v>20</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
@@ -5080,7 +5090,7 @@
         <v>20</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
@@ -5282,16 +5292,16 @@
         <v>20</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>234</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H142" s="8"/>
     </row>
@@ -5322,10 +5332,10 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H144" s="8"/>
     </row>
@@ -5340,14 +5350,14 @@
         <v>20</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H145" s="7"/>
     </row>
@@ -5366,10 +5376,10 @@
       </c>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H146" s="8"/>
     </row>
@@ -5384,16 +5394,16 @@
         <v>20</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H147" s="7"/>
     </row>
@@ -5408,10 +5418,10 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H148" s="8"/>
     </row>
@@ -5426,16 +5436,16 @@
         <v>15</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -5450,16 +5460,16 @@
         <v>15</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H150" s="8"/>
     </row>
@@ -5516,14 +5526,14 @@
         <v>20</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H153" s="8"/>
     </row>
@@ -5554,7 +5564,7 @@
         <v>20</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
@@ -5588,14 +5598,14 @@
         <v>20</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H157" s="8"/>
     </row>
@@ -5612,10 +5622,10 @@
         <v>3</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H158" s="7"/>
     </row>
@@ -5630,14 +5640,14 @@
         <v>20</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H159" s="8"/>
     </row>
@@ -5652,14 +5662,14 @@
         <v>20</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H160" s="7"/>
     </row>
@@ -5690,16 +5700,16 @@
         <v>15</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H162" s="7"/>
     </row>
@@ -5714,16 +5724,16 @@
         <v>15</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H163" s="8"/>
     </row>
@@ -5738,7 +5748,7 @@
         <v>15</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E164" s="7">
         <v>9889656446</v>
@@ -5762,14 +5772,14 @@
         <v>15</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E165" s="8"/>
       <c r="F165" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H165" s="8"/>
     </row>
@@ -5804,14 +5814,14 @@
         <v>20</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H167" s="8"/>
     </row>
@@ -5842,14 +5852,14 @@
         <v>20</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H169" s="8"/>
     </row>
@@ -5915,7 +5925,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5923,20 +5933,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5947,20 +5957,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5968,47 +5978,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -6018,12 +6028,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -6033,55 +6043,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6091,152 +6101,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6246,204 +6256,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -6458,12 +6468,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -749,7 +749,7 @@
     <t>PROV_SUITE_NO</t>
   </si>
   <si>
-    <t>PATIENT_STATE</t>
+    <t>ADD_PROV_PATIENT_STATE</t>
   </si>
   <si>
     <t>Alaska</t>
@@ -1942,7 +1942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1955,6 +1955,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2327,7 +2328,7 @@
   <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4875,10 +4876,10 @@
       <c r="C120" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E120" s="13" t="s">
+      <c r="E120" s="14" t="s">
         <v>241</v>
       </c>
       <c r="F120" s="8"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -782,7 +782,7 @@
     <t>PROV_OFFICE_MAIL</t>
   </si>
   <si>
-    <t>SEARCH_PROV_ADD_PROVIDER</t>
+    <t>ADD_PROV_ADD_PROVIDER</t>
   </si>
   <si>
     <t>PHYSICIAN_CHECKBOX</t>
@@ -1258,10 +1258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1300,49 +1300,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1355,22 +1316,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,16 +1352,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1422,6 +1390,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1430,14 +1430,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,91 +1464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,7 +1482,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,19 +1614,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,43 +1644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,6 +1706,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1721,26 +1736,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1765,45 +1786,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,130 +1815,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1956,8 +1956,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2327,8 +2327,8 @@
   <sheetPr/>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4876,10 +4876,10 @@
       <c r="C120" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E120" s="13" t="s">
         <v>241</v>
       </c>
       <c r="F120" s="8"/>
@@ -5054,9 +5054,9 @@
         <v>19</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="14" t="s">
         <v>251</v>
       </c>
       <c r="E129" s="8"/>

--- a/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
+++ b/QA/testcases/Pharmacy/Phar_Patient_App_ViewIncomplete -ok.xlsx
@@ -1299,6 +1299,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1316,60 +1331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,35 +1344,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1429,8 +1366,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,6 +1408,38 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1464,6 +1464,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1476,13 +1614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,109 +1626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1608,43 +1644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,15 +1697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1717,6 +1708,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,17 +1777,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1774,30 +1794,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,134 +1815,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1957,7 +1957,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2327,8 +2326,8 @@
   <sheetPr/>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5056,7 +5055,7 @@
       <c r="C129" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="12" t="s">
         <v>251</v>
       </c>
       <c r="E129" s="8"/>
